--- a/outputs/ML_Results/dist_commute/Paris.xlsx
+++ b/outputs/ML_Results/dist_commute/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ46266556" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46827709" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ47480502" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ48067171" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ48642504" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ49252633" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ49809437" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50431824" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51010828" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27923346" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ28441840" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ28991285" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ29609118" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ30221999" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ30777322" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ31378646" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ31961491" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ32540268" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3205.774692267418</v>
+        <v>3150.295450997176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008569568167542126</v>
+        <v>0.009776264340039099</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-134.6066128915095</v>
+        <v>-18.24240633719774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7039436827271994</v>
+        <v>0.9583086591474073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.1538586149015</v>
+        <v>916.5534917073849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5151685906300465</v>
+        <v>0.008478460690204805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.044725801343</v>
+        <v>-644.5451410012984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007754476265984377</v>
+        <v>0.3048016915143009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-638.9017840709602</v>
+        <v>-16.30874735232493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3089890532409331</v>
+        <v>0.6831481783201294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.36736057978361</v>
+        <v>-1169.932530671134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7572009390904566</v>
+        <v>1.174378199164749e-25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1171.247322247407</v>
+        <v>-12.44934823552679</v>
       </c>
       <c r="C8" t="n">
-        <v>1.023229967009247e-25</v>
+        <v>0.01436589324313701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-11.81936960681209</v>
+        <v>196.3455869303829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02036354689584993</v>
+        <v>6.905878461149653e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.7175328292793</v>
+        <v>458.717099332233</v>
       </c>
       <c r="C10" t="n">
-        <v>7.791478896577786e-10</v>
+        <v>1.1632692268253e-78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>458.7569834494103</v>
+        <v>-0.01597244745192818</v>
       </c>
       <c r="C11" t="n">
-        <v>1.072825240292014e-78</v>
+        <v>0.2005026065271671</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01613890720465286</v>
+        <v>1.772450210254636e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1957965876013542</v>
+        <v>0.3734494745773345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.715217196540027e-05</v>
+        <v>-3.59121198866437</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3890608815286362</v>
+        <v>0.5412114861393367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.883982443543271</v>
+        <v>0.5160732097115259</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5088289319487749</v>
+        <v>0.9468056921014898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.3234091329759474</v>
+        <v>-839.1051773427689</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9666986683659846</v>
+        <v>0.2583387900435328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-812.3070775058527</v>
+        <v>1446.151746091651</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2738693728018419</v>
+        <v>0.01007142560682553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1460.45612855945</v>
+        <v>2600.682794629907</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009350562535154157</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2606.856185761882</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.82777816909036e-05</v>
+        <v>9.194117799245378e-05</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3956.283238527979</v>
+        <v>3869.810839923689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001306676945171257</v>
+        <v>0.001673808211402191</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-494.8693608609306</v>
+        <v>-271.5889013116354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1435045223101183</v>
+        <v>0.4145267625205715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.9641417256532</v>
+        <v>692.2158204911979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5232353592524542</v>
+        <v>0.03671155568038143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>713.6534346840846</v>
+        <v>-721.3772719740043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03118015245031396</v>
+        <v>0.2399555974623473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-712.0081806983289</v>
+        <v>-0.8344529182729801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2457960448348746</v>
+        <v>0.9834672929790369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.39477417628423</v>
+        <v>-1264.381844595368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8544291811853075</v>
+        <v>1.812640351384437e-29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1270.548060447156</v>
+        <v>-10.25278296491948</v>
       </c>
       <c r="C8" t="n">
-        <v>9.052088691241747e-30</v>
+        <v>0.04358940833199066</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.739288331275576</v>
+        <v>209.7314307391883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08624171477872039</v>
+        <v>4.751632160416919e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.0357999158367</v>
+        <v>437.5434320866282</v>
       </c>
       <c r="C10" t="n">
-        <v>6.611592516333053e-11</v>
+        <v>6.415061144275021e-71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>438.7208100277578</v>
+        <v>-0.01303405203394206</v>
       </c>
       <c r="C11" t="n">
-        <v>2.293592529080113e-71</v>
+        <v>0.295210593862347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01315769436529143</v>
+        <v>-2.304807811209506e-07</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2903253897571893</v>
+        <v>0.9906879965991139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.243424342309463e-06</v>
+        <v>-0.9285618225887653</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9497652563406576</v>
+        <v>0.8754773220295486</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.369599285738383</v>
+        <v>-2.684507709693042</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8171250275169321</v>
+        <v>0.7339175694895934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.278440004910503</v>
+        <v>-189.7586738785022</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5883175427608763</v>
+        <v>0.7996868647417941</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-150.3807754249191</v>
+        <v>1018.4817947471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8405332777826759</v>
+        <v>0.07064517052578928</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1021.308770497209</v>
+        <v>2466.549664187867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06967649878643924</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2498.12088844922</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0001732425640437678</v>
+        <v>0.0002109704331034946</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4138.49180910312</v>
+        <v>4073.956595744447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008349071389207565</v>
+        <v>0.0010053092258082</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-517.0261941827385</v>
+        <v>-378.8511596687486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1336255360612727</v>
+        <v>0.2640207204107247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-65.95750272705742</v>
+        <v>548.3152453555134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8572887227567179</v>
+        <v>0.104175914896794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>563.4607860483044</v>
+        <v>-991.5613403986247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09494785193421997</v>
+        <v>0.12074448981108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-982.6990104047566</v>
+        <v>-23.80719777661712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1240222056630237</v>
+        <v>0.5559700416268645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.44000205752537</v>
+        <v>-1289.237796458542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6488271977449862</v>
+        <v>3.022767767492729e-30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1293.715649127638</v>
+        <v>-15.08859319970821</v>
       </c>
       <c r="C8" t="n">
-        <v>1.901951660450754e-30</v>
+        <v>0.003057971560379366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.19063668220902</v>
+        <v>194.5845802500208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005474717416663545</v>
+        <v>8.618123223596253e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>192.9946815318864</v>
+        <v>445.4080578700086</v>
       </c>
       <c r="C10" t="n">
-        <v>1.179961811913153e-09</v>
+        <v>5.519965389587618e-74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>446.3315589753482</v>
+        <v>-0.01507732152329226</v>
       </c>
       <c r="C11" t="n">
-        <v>2.733497572421805e-74</v>
+        <v>0.2295105775058248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01521840109244687</v>
+        <v>1.232168260088399e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225083089681978</v>
+        <v>0.5350317186624872</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.149205935129943e-05</v>
+        <v>0.4148868275790065</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5628548125062542</v>
+        <v>0.9449248441077067</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02706213984666839</v>
+        <v>0.3345619567375508</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9964054081391081</v>
+        <v>0.9663428979848452</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.7959322851319017</v>
+        <v>-826.9488287714722</v>
       </c>
       <c r="C15" t="n">
-        <v>0.920182670123137</v>
+        <v>0.2702935480210087</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-783.3204633863709</v>
+        <v>884.040944328054</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2964326277952573</v>
+        <v>0.1212387102891517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>908.7788656092835</v>
+        <v>1966.502439952703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1111574545836303</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1982.594591702177</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.003031434937493342</v>
+        <v>0.003282258534097854</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4559.802394131464</v>
+        <v>4516.117914734119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002076724726897843</v>
+        <v>0.0002389290551782089</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-605.8518550147214</v>
+        <v>-476.2431245611814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08471646978283032</v>
+        <v>0.1685329902581101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-193.2747284461294</v>
+        <v>461.036927010548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6031651632127133</v>
+        <v>0.1805485571298459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>472.6583076296786</v>
+        <v>-1212.66178595309</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1697862208404706</v>
+        <v>0.05731521134202013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1208.112506777906</v>
+        <v>-1.755984626835428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05821042177106146</v>
+        <v>0.9649170453082656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.222291548053978</v>
+        <v>-1283.052834203978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9357747683996068</v>
+        <v>2.551675662354845e-30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1286.527035222997</v>
+        <v>-6.994658485573814</v>
       </c>
       <c r="C8" t="n">
-        <v>1.772043813951956e-30</v>
+        <v>0.1683051639736834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.156105490630803</v>
+        <v>208.6866692050559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2266967196556889</v>
+        <v>4.956754053271539e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>207.5644621309832</v>
+        <v>439.3868608056421</v>
       </c>
       <c r="C10" t="n">
-        <v>6.266810465704687e-11</v>
+        <v>3.525693593093653e-73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>440.3119605722007</v>
+        <v>-0.01640517546751384</v>
       </c>
       <c r="C11" t="n">
-        <v>1.77994526176459e-73</v>
+        <v>0.1829640246654735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01657152091666968</v>
+        <v>3.654049568006849e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1784938481203613</v>
+        <v>0.8518162901474289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.496856404041202e-06</v>
+        <v>-6.180853271746052</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8580968223939438</v>
+        <v>0.2951961161562838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.463052996678083</v>
+        <v>-6.515099808102988</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2737388241939095</v>
+        <v>0.4079667655581831</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.376623973418295</v>
+        <v>-394.3335211703228</v>
       </c>
       <c r="C15" t="n">
-        <v>0.349395352017374</v>
+        <v>0.6000833803343171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-380.2889904179972</v>
+        <v>1506.878598690513</v>
       </c>
       <c r="C16" t="n">
-        <v>0.613080230210326</v>
+        <v>0.007517999154391556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1513.177944512094</v>
+        <v>2502.936711806895</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00726140250663079</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2512.688105516267</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0001627637668426236</v>
+        <v>0.0001729850711549536</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1499.741905568002</v>
+        <v>1446.299493754334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2213168619960826</v>
+        <v>0.2381443923207373</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-146.080899634967</v>
+        <v>-34.06470520904108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6720687874849479</v>
+        <v>0.9201052271802505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.0746115729755</v>
+        <v>894.5292302456917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5503966132664111</v>
+        <v>0.008097296364483149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>905.0198673728046</v>
+        <v>-426.2692723303691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007384452727819471</v>
+        <v>0.502606721336468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420.800491675858</v>
+        <v>34.19797266218511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5080527329435822</v>
+        <v>0.3946594511080889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.23170632508263</v>
+        <v>-1284.384221631192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3419703533416606</v>
+        <v>1.837035500951122e-30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1286.526888262641</v>
+        <v>-10.00327256496355</v>
       </c>
       <c r="C8" t="n">
-        <v>1.460091427318633e-30</v>
+        <v>0.0486489763246992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.279055715000094</v>
+        <v>192.9623232465693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06821257427578137</v>
+        <v>1.726167498549023e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.9323339959017</v>
+        <v>463.2408616894999</v>
       </c>
       <c r="C10" t="n">
-        <v>2.105453173073766e-09</v>
+        <v>1.398170538947005e-79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>463.5106270745939</v>
+        <v>-0.007270585134981284</v>
       </c>
       <c r="C11" t="n">
-        <v>1.096086174044399e-79</v>
+        <v>0.5575473571180802</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.007213385173376481</v>
+        <v>6.903389413449208e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5606011208822818</v>
+        <v>0.7269307712766242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.166435338023614e-06</v>
+        <v>1.675756669636181</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7551104584615994</v>
+        <v>0.7758922810611703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.430969734526634</v>
+        <v>15.11883428260446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8079583166570488</v>
+        <v>0.05300876866540097</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.29346552436392</v>
+        <v>-825.9386047616526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06778693317513391</v>
+        <v>0.2675981597057322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-806.2346277692048</v>
+        <v>835.1062502983252</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2791667470060669</v>
+        <v>0.1377997916877778</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>835.8248950532943</v>
+        <v>3009.104483808304</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1374098899772025</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3012.185495217869</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.336133440902314e-06</v>
+        <v>5.47039104792275e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3470.745588114924</v>
+        <v>3443.430644935967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004707039117030892</v>
+        <v>0.005069156154890366</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-228.4652979145926</v>
+        <v>-21.40089829865605</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5065786198374207</v>
+        <v>0.9496163930689603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.9361787814106</v>
+        <v>940.772234337272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2199328000361872</v>
+        <v>0.005257900663798894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>960.0542369705398</v>
+        <v>-300.9705144156941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004382462865177556</v>
+        <v>0.6314474167098094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293.2245711023774</v>
+        <v>35.28362878316373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6400585097337007</v>
+        <v>0.3759260353353358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.95134406964616</v>
+        <v>-1301.943809082521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2707676096834039</v>
+        <v>2.60325446372386e-31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1305.213521632948</v>
+        <v>-12.3561129759599</v>
       </c>
       <c r="C8" t="n">
-        <v>1.718357374246223e-31</v>
+        <v>0.01537193935378312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-11.12144243292748</v>
+        <v>203.6896492126291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02947321742560041</v>
+        <v>1.417961629807153e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.526384522901</v>
+        <v>472.0404348105596</v>
       </c>
       <c r="C10" t="n">
-        <v>1.761967762815166e-10</v>
+        <v>2.050375944186655e-83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>473.3713153748145</v>
+        <v>-0.008495949676624547</v>
       </c>
       <c r="C11" t="n">
-        <v>6.141626823074896e-84</v>
+        <v>0.4927387019928288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.008375395105771585</v>
+        <v>1.337456453052258e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4986463464149044</v>
+        <v>0.4964744485318819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.236882973221769e-05</v>
+        <v>-1.880943647627465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5292124835404071</v>
+        <v>0.7496046869181153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.066460957300547</v>
+        <v>-1.639813078790691</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7257156588895722</v>
+        <v>0.8341224785670156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.671426639537227</v>
+        <v>-1114.247908902239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.733025641673965</v>
+        <v>0.137323970253333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1083.393684820901</v>
+        <v>706.8632189131893</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1483358776640055</v>
+        <v>0.208510043748723</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>690.4775385407307</v>
+        <v>2877.490746520743</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2189973721477975</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2895.359988825335</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.138585966525924e-05</v>
+        <v>1.303318015107235e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5081.441736355291</v>
+        <v>5040.152296276061</v>
       </c>
       <c r="C2" t="n">
-        <v>3.981532735541287e-05</v>
+        <v>4.613696924477603e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-387.3245543251533</v>
+        <v>-231.9149609138465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2583669913775416</v>
+        <v>0.4913497740692125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.9439245437335</v>
+        <v>652.8137086684517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7586174800673081</v>
+        <v>0.05139812980044114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>668.2804311048023</v>
+        <v>-419.8506668429701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04609509228908165</v>
+        <v>0.5368722761532314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-411.9319009027731</v>
+        <v>37.01429314592936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5444670130862365</v>
+        <v>0.3570120603971458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.01615683491302</v>
+        <v>-1254.174468699154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2851629989487898</v>
+        <v>5.348463021452516e-29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1259.043821811396</v>
+        <v>-13.27596888812777</v>
       </c>
       <c r="C8" t="n">
-        <v>3.232924222260255e-29</v>
+        <v>0.009050818721296608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-12.32953307418793</v>
+        <v>179.4510919546243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01560474948305655</v>
+        <v>2.045508007481905e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.5159278394445</v>
+        <v>429.8877794223127</v>
       </c>
       <c r="C10" t="n">
-        <v>2.402886564010296e-08</v>
+        <v>9.416178212570482e-69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.0045411780127</v>
+        <v>-0.0118383171999337</v>
       </c>
       <c r="C11" t="n">
-        <v>4.131959782206541e-69</v>
+        <v>0.3429693559075786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01206776808568403</v>
+        <v>1.428876289881439e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3335697543513654</v>
+        <v>0.9423335963109374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.867156193960571e-07</v>
+        <v>-9.435325051821231</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9722621455776432</v>
+        <v>0.1113556893557027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.725264616443971</v>
+        <v>-8.100798808265033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1007548959811983</v>
+        <v>0.3036632842234305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.121758674353401</v>
+        <v>-283.0857756402536</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2472739143110409</v>
+        <v>0.7056797036997845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-240.0276203482345</v>
+        <v>1253.957235781088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7487951166463505</v>
+        <v>0.02652821106935778</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1270.043319381681</v>
+        <v>2453.164043624271</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02461790628598109</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2494.392825974445</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0001818947536322432</v>
+        <v>0.0002321605955677006</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3239.015898520948</v>
+        <v>3186.255906703884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008244238220822419</v>
+        <v>0.009376418239962681</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-318.2009585606351</v>
+        <v>-131.4208755142864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3572038718394736</v>
+        <v>0.6990667567553599</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274.9272404934759</v>
+        <v>787.309000925144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.453059528495839</v>
+        <v>0.02020873084015517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.5630447400395</v>
+        <v>-672.3881389801609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01704942966687608</v>
+        <v>0.286853922904057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-660.8116262638878</v>
+        <v>-8.40117022580845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2950291913280211</v>
+        <v>0.8343439754867134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9563444426002778</v>
+        <v>-1293.769391790179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9810355089980075</v>
+        <v>1.555349400056726e-30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1297.72371464804</v>
+        <v>-9.241522064155964</v>
       </c>
       <c r="C8" t="n">
-        <v>9.890767996522088e-31</v>
+        <v>0.07268338290456716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.048694272886642</v>
+        <v>219.1951469040575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1189687549465564</v>
+        <v>7.803094451512181e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.4052170410889</v>
+        <v>440.4712192500074</v>
       </c>
       <c r="C10" t="n">
-        <v>1.135745949254235e-11</v>
+        <v>9.460761325384719e-72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>441.2085949732411</v>
+        <v>-0.01484302572613685</v>
       </c>
       <c r="C11" t="n">
-        <v>4.9288905110255e-72</v>
+        <v>0.2353998068173889</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01492046886820908</v>
+        <v>4.576451543142907e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2327615534278154</v>
+        <v>0.8195560472127228</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.214480835508067e-06</v>
+        <v>-1.3257264074967</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8726792364030102</v>
+        <v>0.8229963225996356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.794918213375168</v>
+        <v>1.039171924025017</v>
       </c>
       <c r="C14" t="n">
-        <v>0.761977286115685</v>
+        <v>0.894747809007852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1510474200350982</v>
+        <v>30.31080216696252</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9846707902095104</v>
+        <v>0.9680611138434509</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.18554953564428</v>
+        <v>1266.195986288083</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9124849588355134</v>
+        <v>0.02539201207562448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1296.909293690388</v>
+        <v>2562.380205185103</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02200886255729276</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2584.510928360622</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0001072059301395981</v>
+        <v>0.0001234915155474198</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2909.248505990024</v>
+        <v>2818.291643881035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01820389953788882</v>
+        <v>0.02215352707661785</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-185.8931831929236</v>
+        <v>-23.08605453740054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5831376117628544</v>
+        <v>0.9447766091007832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.8496694368496</v>
+        <v>867.6129484516017</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3341295990524494</v>
+        <v>0.008973532910162497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.548440698029</v>
+        <v>-394.7926936912777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007643407142579685</v>
+        <v>0.5355413349735151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386.1754110226792</v>
+        <v>8.18424456548299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5443505867788103</v>
+        <v>0.8376145781308905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.24523845578496</v>
+        <v>-1345.981292894136</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7216404181520288</v>
+        <v>4.685385501332331e-33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1353.615754299165</v>
+        <v>-12.87598824184023</v>
       </c>
       <c r="C8" t="n">
-        <v>2.069102618533996e-33</v>
+        <v>0.01187088983100395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-11.73236261406101</v>
+        <v>186.9715633104643</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02229282643831917</v>
+        <v>5.160677911742338e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>186.7153279096371</v>
+        <v>452.6910713923112</v>
       </c>
       <c r="C10" t="n">
-        <v>5.350213371025343e-09</v>
+        <v>6.844303932637915e-76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>452.655882823074</v>
+        <v>-0.01688001378353536</v>
       </c>
       <c r="C11" t="n">
-        <v>6.262171436658633e-76</v>
+        <v>0.1783741741667743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01682885837129101</v>
+        <v>8.302205966719945e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1795438641048333</v>
+        <v>0.6766883550431747</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.222029439709376e-06</v>
+        <v>0.09723833018586148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7167663422107888</v>
+        <v>0.9869218186546763</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3652281348331726</v>
+        <v>6.461841752610383</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9509110938170369</v>
+        <v>0.4137053948814322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.182529422632701</v>
+        <v>-1292.858116618074</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5127320999523586</v>
+        <v>0.08739961888755853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1263.303361695424</v>
+        <v>1409.777663765177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09479959900042759</v>
+        <v>0.01275658825929554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1415.914881847342</v>
+        <v>2767.171573656149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01234336547782569</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2766.923368334262</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.309523482513459e-05</v>
+        <v>3.324845845332639e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Paris.xlsx
+++ b/outputs/ML_Results/dist_commute/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ27923346" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ28441840" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ28991285" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ29609118" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ30221999" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ30777322" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ31378646" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ31961491" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ32540268" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ30005972" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ34329196" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ35746218" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ36654416" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ37665193" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ38587992" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ39490908" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41144416" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ41890856" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,49 +466,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3150.295450997176</v>
+        <v>1522.956391481482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009776264340039099</v>
+        <v>0.3139952371443505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.24240633719774</v>
+        <v>320.8823705525579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9583086591474073</v>
+        <v>0.7524474837196825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.5534917073849</v>
+        <v>458.7944397425745</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008478460690204805</v>
+        <v>0.6387021542210245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-644.5451410012984</v>
+        <v>1394.065602666386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3048016915143009</v>
+        <v>0.1522754643830427</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16.30874735232493</v>
+        <v>-16.95717021966171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6831481783201294</v>
+        <v>0.6713623279424463</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1169.932530671134</v>
+        <v>-1168.301481398934</v>
       </c>
       <c r="C7" t="n">
-        <v>1.174378199164749e-25</v>
+        <v>1.36118546263149e-25</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.44934823552679</v>
+        <v>-12.31713694183266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01436589324313701</v>
+        <v>0.01540983012917408</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.3455869303829</v>
+        <v>196.5557733039777</v>
       </c>
       <c r="C9" t="n">
-        <v>6.905878461149653e-10</v>
+        <v>6.683309498759672e-10</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.717099332233</v>
+        <v>458.6530450215633</v>
       </c>
       <c r="C10" t="n">
-        <v>1.1632692268253e-78</v>
+        <v>1.264420813314676e-78</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01597244745192818</v>
+        <v>-0.01602808987721869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2005026065271671</v>
+        <v>0.1989840766675158</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.772450210254636e-05</v>
+        <v>1.748260547686058e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3734494745773345</v>
+        <v>0.3800868017112797</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.59121198866437</v>
+        <v>-3.638924868144806</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5412114861393367</v>
+        <v>0.535867850291717</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5160732097115259</v>
+        <v>0.2874809862135845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9468056921014898</v>
+        <v>0.970341550358405</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-839.1051773427689</v>
+        <v>-824.029015429797</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2583387900435328</v>
+        <v>0.2670605582316218</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1446.151746091651</v>
+        <v>1446.093444853196</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01007142560682553</v>
+        <v>0.01009036588594601</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2600.682794629907</v>
+        <v>2610.827298122844</v>
       </c>
       <c r="C17" t="n">
-        <v>9.194117799245378e-05</v>
+        <v>8.631782862826166e-05</v>
       </c>
     </row>
   </sheetData>
@@ -710,49 +710,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3869.810839923689</v>
+        <v>1404.816031785901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001673808211402191</v>
+        <v>0.3538028766396497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-271.5889013116354</v>
+        <v>1126.412146346317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4145267625205715</v>
+        <v>0.2606371419115787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.2158204911979</v>
+        <v>957.1424792290356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03671155568038143</v>
+        <v>0.3209397572282168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-721.3772719740043</v>
+        <v>1918.772861000336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2399555974623473</v>
+        <v>0.0459062996700773</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8344529182729801</v>
+        <v>-2.552053722425594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9834672929790369</v>
+        <v>0.9494802920276616</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1264.381844595368</v>
+        <v>-1261.955838750424</v>
       </c>
       <c r="C7" t="n">
-        <v>1.812640351384437e-29</v>
+        <v>2.280453896793739e-29</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.25278296491948</v>
+        <v>-10.21096460672584</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04358940833199066</v>
+        <v>0.04441617351310496</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>209.7314307391883</v>
+        <v>210.2561839581641</v>
       </c>
       <c r="C9" t="n">
-        <v>4.751632160416919e-11</v>
+        <v>4.255875684020215e-11</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>437.5434320866282</v>
+        <v>437.3074963335171</v>
       </c>
       <c r="C10" t="n">
-        <v>6.415061144275021e-71</v>
+        <v>7.682177069536356e-71</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01303405203394206</v>
+        <v>-0.01321552489993552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.295210593862347</v>
+        <v>0.2886396703033438</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.304807811209506e-07</v>
+        <v>-1.237737283094702e-07</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9906879965991139</v>
+        <v>0.9949997909967985</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.9285618225887653</v>
+        <v>-0.9848800188664431</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8754773220295486</v>
+        <v>0.8679904756999404</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.684507709693042</v>
+        <v>-2.904889717555478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7339175694895934</v>
+        <v>0.7129315531405407</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-189.7586738785022</v>
+        <v>-204.1089602036714</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7996868647417941</v>
+        <v>0.7849797953802943</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1018.4817947471</v>
+        <v>1025.68765365046</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07064517052578928</v>
+        <v>0.0687244679533532</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2466.549664187867</v>
+        <v>2479.891094866841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002109704331034946</v>
+        <v>0.0001950563371773189</v>
       </c>
     </row>
   </sheetData>
@@ -954,49 +954,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4073.956595744447</v>
+        <v>1100.523187334641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0010053092258082</v>
+        <v>0.4799838085099545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-378.8511596687486</v>
+        <v>1579.186379370582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2640207204107247</v>
+        <v>0.1358189852818083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>548.3152453555134</v>
+        <v>1336.521727650496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.104175914896794</v>
+        <v>0.1909702787153305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-991.5613403986247</v>
+        <v>2261.069607196446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.12074448981108</v>
+        <v>0.02645126220283478</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23.80719777661712</v>
+        <v>-25.72601136887959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5559700416268645</v>
+        <v>0.5247628747394614</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1289.237796458542</v>
+        <v>-1286.291355586122</v>
       </c>
       <c r="C7" t="n">
-        <v>3.022767767492729e-30</v>
+        <v>4.038282130341576e-30</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.08859319970821</v>
+        <v>-14.92935871470974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003057971560379366</v>
+        <v>0.003361563536107021</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.5845802500208</v>
+        <v>195.1088244188862</v>
       </c>
       <c r="C9" t="n">
-        <v>8.618123223596253e-10</v>
+        <v>7.784343387039226e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.4080578700086</v>
+        <v>445.3611713462915</v>
       </c>
       <c r="C10" t="n">
-        <v>5.519965389587618e-74</v>
+        <v>5.749743858383188e-74</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01507732152329226</v>
+        <v>-0.01525459893861003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2295105775058248</v>
+        <v>0.2241690487716188</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.232168260088399e-05</v>
+        <v>1.239654988448021e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5350317186624872</v>
+        <v>0.5325842731313941</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4148868275790065</v>
+        <v>0.3412504079996624</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9449248441077067</v>
+        <v>0.9546869828587694</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3345619567375508</v>
+        <v>0.003900885306129087</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9663428979848452</v>
+        <v>0.9996072856717817</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-826.9488287714722</v>
+        <v>-839.6549294786881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2702935480210087</v>
+        <v>0.2631583754348311</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>884.040944328054</v>
+        <v>894.58162133478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1212387102891517</v>
+        <v>0.1169350314394295</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1966.502439952703</v>
+        <v>1990.594511223455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003282258534097854</v>
+        <v>0.002924132210709429</v>
       </c>
     </row>
   </sheetData>
@@ -1198,49 +1198,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4516.117914734119</v>
+        <v>1920.017397731989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002389290551782089</v>
+        <v>0.2110554333661575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-476.2431245611814</v>
+        <v>1087.104056701781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1685329902581101</v>
+        <v>0.3029781986674615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.036927010548</v>
+        <v>853.2517788545372</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1805485571298459</v>
+        <v>0.4013621306907046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1212.66178595309</v>
+        <v>1789.669672177831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05731521134202013</v>
+        <v>0.07737283382532333</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.755984626835428</v>
+        <v>-4.148980630510355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9649170453082656</v>
+        <v>0.9172743946619148</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1283.052834203978</v>
+        <v>-1280.926951788521</v>
       </c>
       <c r="C7" t="n">
-        <v>2.551675662354845e-30</v>
+        <v>3.203533960392958e-30</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.994658485573814</v>
+        <v>-6.768143240973282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1683051639736834</v>
+        <v>0.1824175051866774</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>208.6866692050559</v>
+        <v>209.5702590891539</v>
       </c>
       <c r="C9" t="n">
-        <v>4.956754053271539e-11</v>
+        <v>4.132436748973043e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.3868608056421</v>
+        <v>439.3791423782725</v>
       </c>
       <c r="C10" t="n">
-        <v>3.525693593093653e-73</v>
+        <v>3.746785566532748e-73</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01640517546751384</v>
+        <v>-0.01650605427805925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1829640246654735</v>
+        <v>0.180450393673233</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.654049568006849e-06</v>
+        <v>3.335018071883189e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8518162901474289</v>
+        <v>0.8646490566289007</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.180853271746052</v>
+        <v>-6.133427030858371</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2951961161562838</v>
+        <v>0.2989898955677497</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.515099808102988</v>
+        <v>-6.789744254166202</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4079667655581831</v>
+        <v>0.3885537969449007</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-394.3335211703228</v>
+        <v>-375.4779977765078</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6000833803343171</v>
+        <v>0.6176850838492882</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1506.878598690513</v>
+        <v>1504.465673301621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007517999154391556</v>
+        <v>0.007635467102107696</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2502.936711806895</v>
+        <v>2526.408274836029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001729850711549536</v>
+        <v>0.000150852941912307</v>
       </c>
     </row>
   </sheetData>
@@ -1442,49 +1442,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1446.299493754334</v>
+        <v>-583.7607534865236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2381443923207373</v>
+        <v>0.7009291638821317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-34.06470520904108</v>
+        <v>701.8199803292456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9201052271802505</v>
+        <v>0.490432710561726</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>894.5292302456917</v>
+        <v>720.9027341693759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008097296364483149</v>
+        <v>0.4613651905234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-426.2692723303691</v>
+        <v>1648.104257331252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.502606721336468</v>
+        <v>0.09107016010562252</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.19797266218511</v>
+        <v>33.26785073823717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3946594511080889</v>
+        <v>0.4077329169443252</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1284.384221631192</v>
+        <v>-1283.191500965684</v>
       </c>
       <c r="C7" t="n">
-        <v>1.837035500951122e-30</v>
+        <v>2.048786412906795e-30</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.00327256496355</v>
+        <v>-9.983539793725027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0486489763246992</v>
+        <v>0.04903987942922815</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>192.9623232465693</v>
+        <v>193.5213370067214</v>
       </c>
       <c r="C9" t="n">
-        <v>1.726167498549023e-09</v>
+        <v>1.548722125698586e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.2408616894999</v>
+        <v>463.1685857756894</v>
       </c>
       <c r="C10" t="n">
-        <v>1.398170538947005e-79</v>
+        <v>1.483777548961002e-79</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.007270585134981284</v>
+        <v>-0.00738619292760432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5575473571180802</v>
+        <v>0.5513678813143341</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.903389413449208e-06</v>
+        <v>6.937432287975203e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7269307712766242</v>
+        <v>0.7256496529881957</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.675756669636181</v>
+        <v>1.685607307123138</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7758922810611703</v>
+        <v>0.7746113663561709</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.11883428260446</v>
+        <v>14.99864556718244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05300876866540097</v>
+        <v>0.05487327246574399</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-825.9386047616526</v>
+        <v>-831.233673112442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2675981597057322</v>
+        <v>0.2646403412301429</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.1062502983252</v>
+        <v>842.6949332037902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1377997916877778</v>
+        <v>0.1343658078268923</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3009.104483808304</v>
+        <v>3019.448372924573</v>
       </c>
       <c r="C17" t="n">
-        <v>5.47039104792275e-06</v>
+        <v>5.072564459693287e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1686,49 +1686,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3443.430644935967</v>
+        <v>1321.551012888364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005069156154890366</v>
+        <v>0.3781304087098454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-21.40089829865605</v>
+        <v>825.1467438880245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9496163930689603</v>
+        <v>0.4023210696987405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.772234337272</v>
+        <v>811.8835678358482</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005257900663798894</v>
+        <v>0.3905965149576786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-300.9705144156941</v>
+        <v>1772.181230239138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6314474167098094</v>
+        <v>0.06002825330167061</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.28362878316373</v>
+        <v>34.14671483028839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3759260353353358</v>
+        <v>0.3914541204915185</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1301.943809082521</v>
+        <v>-1301.302132492614</v>
       </c>
       <c r="C7" t="n">
-        <v>2.60325446372386e-31</v>
+        <v>2.762009776219429e-31</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.3561129759599</v>
+        <v>-12.38260949759528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01537193935378312</v>
+        <v>0.01510728087238344</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.6896492126291</v>
+        <v>203.9690648039056</v>
       </c>
       <c r="C9" t="n">
-        <v>1.417961629807153e-10</v>
+        <v>1.338962315153566e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.0404348105596</v>
+        <v>471.9419050269357</v>
       </c>
       <c r="C10" t="n">
-        <v>2.050375944186655e-83</v>
+        <v>2.204613405157004e-83</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.008495949676624547</v>
+        <v>-0.008621667690382456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4927387019928288</v>
+        <v>0.4863961067834947</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.337456453052258e-05</v>
+        <v>1.355995381424888e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4964744485318819</v>
+        <v>0.4905412511695947</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.880943647627465</v>
+        <v>-1.90246595912627</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7496046869181153</v>
+        <v>0.7468263946076299</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.639813078790691</v>
+        <v>-1.725513361254613</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8341224785670156</v>
+        <v>0.8255463244984131</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1114.247908902239</v>
+        <v>-1127.411208918019</v>
       </c>
       <c r="C15" t="n">
-        <v>0.137323970253333</v>
+        <v>0.1328545196869658</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.8632189131893</v>
+        <v>713.3732558611631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.208510043748723</v>
+        <v>0.2043936673964886</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2877.490746520743</v>
+        <v>2885.799778093011</v>
       </c>
       <c r="C17" t="n">
-        <v>1.303318015107235e-05</v>
+        <v>1.229466320156847e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1930,49 +1930,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5040.152296276061</v>
+        <v>2378.744629915376</v>
       </c>
       <c r="C2" t="n">
-        <v>4.613696924477603e-05</v>
+        <v>0.1255765683702301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-231.9149609138465</v>
+        <v>1430.452865394398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4913497740692125</v>
+        <v>0.1754213353309697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652.8137086684517</v>
+        <v>1179.904706905374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05139812980044114</v>
+        <v>0.2461705891027984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-419.8506668429701</v>
+        <v>2061.464063880255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5368722761532314</v>
+        <v>0.04201433883015469</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.01429314592936</v>
+        <v>35.79310989491601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3570120603971458</v>
+        <v>0.3731736831193847</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1254.174468699154</v>
+        <v>-1252.632154323406</v>
       </c>
       <c r="C7" t="n">
-        <v>5.348463021452516e-29</v>
+        <v>6.15373871130937e-29</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.27596888812777</v>
+        <v>-13.37350424632936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009050818721296608</v>
+        <v>0.008527858060382665</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>179.4510919546243</v>
+        <v>179.6987092003609</v>
       </c>
       <c r="C9" t="n">
-        <v>2.045508007481905e-08</v>
+        <v>1.948864286292349e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429.8877794223127</v>
+        <v>429.8206527791115</v>
       </c>
       <c r="C10" t="n">
-        <v>9.416178212570482e-69</v>
+        <v>9.603540728143535e-69</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0118383171999337</v>
+        <v>-0.01206340081669634</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3429693559075786</v>
+        <v>0.3338851579192457</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.428876289881439e-06</v>
+        <v>1.884267322278682e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9423335963109374</v>
+        <v>0.9240111187876345</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.435325051821231</v>
+        <v>-9.476829565768709</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1113556893557027</v>
+        <v>0.1097681927061229</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.100798808265033</v>
+        <v>-8.07743521248636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3036632842234305</v>
+        <v>0.3050147701031933</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-283.0857756402536</v>
+        <v>-306.4431397219337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7056797036997845</v>
+        <v>0.6827376828280968</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1253.957235781088</v>
+        <v>1264.950835487229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02652821106935778</v>
+        <v>0.02523635938138626</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2453.164043624271</v>
+        <v>2475.481153840133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002321605955677006</v>
+        <v>0.0002036313543577991</v>
       </c>
     </row>
   </sheetData>
@@ -2174,49 +2174,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3186.255906703884</v>
+        <v>842.65998369958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009376418239962681</v>
+        <v>0.5780513488636563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-131.4208755142864</v>
+        <v>968.5100474413645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6990667567553599</v>
+        <v>0.3366265020367183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>787.309000925144</v>
+        <v>934.0906637930194</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02020873084015517</v>
+        <v>0.3349163451178361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-672.3881389801609</v>
+        <v>1851.429328487838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.286853922904057</v>
+        <v>0.05508805762567355</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.40117022580845</v>
+        <v>-9.447902150029858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8343439754867134</v>
+        <v>0.8141476449883986</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1293.769391790179</v>
+        <v>-1292.147883136498</v>
       </c>
       <c r="C7" t="n">
-        <v>1.555349400056726e-30</v>
+        <v>1.801871405756778e-30</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.241522064155964</v>
+        <v>-9.141900177055616</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07268338290456716</v>
+        <v>0.07566016599418232</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219.1951469040575</v>
+        <v>219.6929951021695</v>
       </c>
       <c r="C9" t="n">
-        <v>7.803094451512181e-12</v>
+        <v>7.011428462454314e-12</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>440.4712192500074</v>
+        <v>440.512025330628</v>
       </c>
       <c r="C10" t="n">
-        <v>9.460761325384719e-72</v>
+        <v>9.21133423963321e-72</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01484302572613685</v>
+        <v>-0.0148525235816674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2353998068173889</v>
+        <v>0.2351155738881615</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.576451543142907e-06</v>
+        <v>4.518561805631733e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8195560472127228</v>
+        <v>0.8218001054100158</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.3257264074967</v>
+        <v>-1.350915399002004</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8229963225996356</v>
+        <v>0.8196906654710817</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.039171924025017</v>
+        <v>0.8448845579522986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.894747809007852</v>
+        <v>0.9143130239905707</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.31080216696252</v>
+        <v>23.81687335776749</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9680611138434509</v>
+        <v>0.9749109809294129</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1266.195986288083</v>
+        <v>1270.139530749772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02539201207562448</v>
+        <v>0.02495115511589098</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2562.380205185103</v>
+        <v>2576.539054058287</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001234915155474198</v>
+        <v>0.0001134298708987113</v>
       </c>
     </row>
   </sheetData>
@@ -2418,49 +2418,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2818.291643881035</v>
+        <v>687.9777614048743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02215352707661785</v>
+        <v>0.6602167046583898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-23.08605453740054</v>
+        <v>762.4317653088815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9447766091007832</v>
+        <v>0.4768005841753322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>867.6129484516017</v>
+        <v>782.8696901580112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008973532910162497</v>
+        <v>0.4499579152266726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-394.7926936912777</v>
+        <v>1672.381919064916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5355413349735151</v>
+        <v>0.1057574387590278</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.18424456548299</v>
+        <v>7.037361516903964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8376145781308905</v>
+        <v>0.860065284351569</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1345.981292894136</v>
+        <v>-1345.889224854322</v>
       </c>
       <c r="C7" t="n">
-        <v>4.685385501332331e-33</v>
+        <v>4.71518379310548e-33</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.87598824184023</v>
+        <v>-12.87794998100712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01187088983100395</v>
+        <v>0.01183778730345415</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>186.9715633104643</v>
+        <v>187.2850230372941</v>
       </c>
       <c r="C9" t="n">
-        <v>5.160677911742338e-09</v>
+        <v>4.883779955009357e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.6910713923112</v>
+        <v>452.5471795430918</v>
       </c>
       <c r="C10" t="n">
-        <v>6.844303932637915e-76</v>
+        <v>7.665984996493868e-76</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01688001378353536</v>
+        <v>-0.01675839794845372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1783741741667743</v>
+        <v>0.1816080712211121</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.302205966719945e-06</v>
+        <v>8.006066002605822e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6766883550431747</v>
+        <v>0.6876256378518751</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09723833018586148</v>
+        <v>0.06168009899576143</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9869218186546763</v>
+        <v>0.99170312513193</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.461841752610383</v>
+        <v>6.327466347512345</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4137053948814322</v>
+        <v>0.4232243030666653</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1292.858116618074</v>
+        <v>-1300.696503429195</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08739961888755853</v>
+        <v>0.08556153773223489</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1409.777663765177</v>
+        <v>1409.02292054315</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01275658825929554</v>
+        <v>0.01280370843125633</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2767.171573656149</v>
+        <v>2772.029021112467</v>
       </c>
       <c r="C17" t="n">
-        <v>3.324845845332639e-05</v>
+        <v>3.21370152738139e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Paris.xlsx
+++ b/outputs/ML_Results/dist_commute/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ30005972" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ34329196" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ35746218" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36654416" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ37665193" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ38587992" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ39490908" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ41144416" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ41890856" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ42790531" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ43132434" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ43533241" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43933553" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ44301483" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ44838987" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ45267929" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ45751457" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ46283859" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1522.956391481482</v>
+        <v>3082.02993642058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3139952371443505</v>
+        <v>0.03488285520740619</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320.8823705525579</v>
+        <v>289.5526899254211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7524474837196825</v>
+        <v>0.7761072269425653</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.7944397425745</v>
+        <v>433.8156547238273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6387021542210245</v>
+        <v>0.6573313713957241</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.065602666386</v>
+        <v>1379.954069725993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1522754643830427</v>
+        <v>0.1568021748160325</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16.95717021966171</v>
+        <v>-14.71664463712679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6713623279424463</v>
+        <v>0.7129043095754726</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1168.301481398934</v>
+        <v>-1172.708020689024</v>
       </c>
       <c r="C7" t="n">
-        <v>1.36118546263149e-25</v>
+        <v>9.783801267699822e-26</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.31713694183266</v>
+        <v>-12.08041078659482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01540983012917408</v>
+        <v>0.0175826474956515</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.5557733039777</v>
+        <v>199.4155016618355</v>
       </c>
       <c r="C9" t="n">
-        <v>6.683309498759672e-10</v>
+        <v>3.859960579893676e-10</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.6530450215633</v>
+        <v>422.0539192767027</v>
       </c>
       <c r="C10" t="n">
-        <v>1.264420813314676e-78</v>
+        <v>4.482502834575594e-78</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01602808987721869</v>
+        <v>-0.008294570292385128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1989840766675158</v>
+        <v>0.5011926264720887</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.748260547686058e-05</v>
+        <v>3.182019297321767e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3800868017112797</v>
+        <v>0.1044417154785549</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.638924868144806</v>
+        <v>-8.095916585970661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.535867850291717</v>
+        <v>0.1607594045814308</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2874809862135845</v>
+        <v>-6.74468937047702</v>
       </c>
       <c r="C14" t="n">
-        <v>0.970341550358405</v>
+        <v>0.3703014501747884</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-824.029015429797</v>
+        <v>-1403.322831310512</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2670605582316218</v>
+        <v>0.05400207174062887</v>
       </c>
     </row>
     <row r="16">
@@ -648,23 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1446.093444853196</v>
+        <v>1317.068623538143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01009036588594601</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2610.827298122844</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.631782862826166e-05</v>
+        <v>0.01900918728546259</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,10 +697,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1404.816031785901</v>
+        <v>2936.059940372899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3538028766396497</v>
+        <v>0.04424764539394235</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1126.412146346317</v>
+        <v>1083.794585819245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2606371419115787</v>
+        <v>0.2794240359653673</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>957.1424792290356</v>
+        <v>915.4514830917999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3209397572282168</v>
+        <v>0.3427869757188405</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1918.772861000336</v>
+        <v>1889.925613922583</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0459062996700773</v>
+        <v>0.04942761110625559</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.552053722425594</v>
+        <v>-0.9771502127033607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9494802920276616</v>
+        <v>0.9806585625393509</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1261.955838750424</v>
+        <v>-1267.918844434126</v>
       </c>
       <c r="C7" t="n">
-        <v>2.280453896793739e-29</v>
+        <v>1.355466672656549e-29</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.21096460672584</v>
+        <v>-10.1426854791798</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04441617351310496</v>
+        <v>0.04601379714827661</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210.2561839581641</v>
+        <v>213.288042222017</v>
       </c>
       <c r="C9" t="n">
-        <v>4.255875684020215e-11</v>
+        <v>2.276740447097333e-11</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>437.3074963335171</v>
+        <v>401.9986297435647</v>
       </c>
       <c r="C10" t="n">
-        <v>7.682177069536356e-71</v>
+        <v>1.878220970067944e-70</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01321552489993552</v>
+        <v>-0.005960568523701856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2886396703033438</v>
+        <v>0.6282391863695269</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.237737283094702e-07</v>
+        <v>1.316693274447555e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9949997909967985</v>
+        <v>0.4982129247313821</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.9848800188664431</v>
+        <v>-5.269863321769025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8679904756999404</v>
+        <v>0.3649826249995276</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.904889717555478</v>
+        <v>-9.757016008303335</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7129315531405407</v>
+        <v>0.2041756050796533</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-204.1089602036714</v>
+        <v>-749.9087993906159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7849797953802943</v>
+        <v>0.3070544178409945</v>
       </c>
     </row>
     <row r="16">
@@ -892,23 +879,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1025.68765365046</v>
+        <v>906.5102017971617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0687244679533532</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2479.891094866841</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0001950563371773189</v>
+        <v>0.1073564731370187</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,10 +928,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1100.523187334641</v>
+        <v>2351.834568800614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4799838085099545</v>
+        <v>0.1171613902030304</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +941,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1579.186379370582</v>
+        <v>1525.86372672662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1358189852818083</v>
+        <v>0.149654281056607</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1336.521727650496</v>
+        <v>1272.922207344458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1909702787153305</v>
+        <v>0.2130539847324295</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2261.069607196446</v>
+        <v>2209.771991406836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02645126220283478</v>
+        <v>0.03011839541208311</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25.72601136887959</v>
+        <v>-24.79301161817646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5247628747394614</v>
+        <v>0.5400735722589076</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1286.291355586122</v>
+        <v>-1293.514643983627</v>
       </c>
       <c r="C7" t="n">
-        <v>4.038282130341576e-30</v>
+        <v>1.995793624172176e-30</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.92935871470974</v>
+        <v>-14.90551572776127</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003361563536107021</v>
+        <v>0.003426805743445652</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.1088244188862</v>
+        <v>196.7460808070682</v>
       </c>
       <c r="C9" t="n">
-        <v>7.784343387039226e-10</v>
+        <v>5.684264942789253e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.3611713462915</v>
+        <v>417.8646674166266</v>
       </c>
       <c r="C10" t="n">
-        <v>5.749743858383188e-74</v>
+        <v>5.216413755488153e-76</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01525459893861003</v>
+        <v>-0.009019308508505791</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2241690487716188</v>
+        <v>0.466245599545844</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.239654988448021e-05</v>
+        <v>2.282051990601567e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5325842731313941</v>
+        <v>0.2433867697349052</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3412504079996624</v>
+        <v>-3.173189214437407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9546869828587694</v>
+        <v>0.5901303841404552</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003900885306129087</v>
+        <v>-5.432573053750374</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996072856717817</v>
+        <v>0.4813729509721361</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-839.6549294786881</v>
+        <v>-1269.932446363141</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2631583754348311</v>
+        <v>0.08473935513976476</v>
       </c>
     </row>
     <row r="16">
@@ -1136,23 +1110,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>894.58162133478</v>
+        <v>798.7503097740057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1169350314394295</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1990.594511223455</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.002924132210709429</v>
+        <v>0.1610778309683021</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,10 +1159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.017397731989</v>
+        <v>3465.721237580303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2110554333661575</v>
+        <v>0.01930506618609283</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1087.104056701781</v>
+        <v>1013.669623579725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3029781986674615</v>
+        <v>0.3370914776263489</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>853.2517788545372</v>
+        <v>776.9551120404151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4013621306907046</v>
+        <v>0.445029284631722</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.669672177831</v>
+        <v>1728.980003930343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07737283382532333</v>
+        <v>0.08816030397153268</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.148980630510355</v>
+        <v>-2.387067715760807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9172743946619148</v>
+        <v>0.952380186938546</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1280.926951788521</v>
+        <v>-1284.688865154563</v>
       </c>
       <c r="C7" t="n">
-        <v>3.203533960392958e-30</v>
+        <v>2.396628638923116e-30</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.768143240973282</v>
+        <v>-6.702618034843532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1824175051866774</v>
+        <v>0.187017442809713</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>209.5702590891539</v>
+        <v>212.6744517583871</v>
       </c>
       <c r="C9" t="n">
-        <v>4.132436748973043e-11</v>
+        <v>2.17229962366004e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.3791423782725</v>
+        <v>404.6668612780862</v>
       </c>
       <c r="C10" t="n">
-        <v>3.746785566532748e-73</v>
+        <v>1.777574302748596e-72</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01650605427805925</v>
+        <v>-0.008497996135605831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180450393673233</v>
+        <v>0.4842898114527407</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.335018071883189e-06</v>
+        <v>1.672941681886504e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8646490566289007</v>
+        <v>0.3850157517380138</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.133427030858371</v>
+        <v>-10.34278734068034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2989898955677497</v>
+        <v>0.07479066853739939</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.789744254166202</v>
+        <v>-13.50124587715675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3885537969449007</v>
+        <v>0.07872174715265982</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-375.4779977765078</v>
+        <v>-933.6623554205889</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6176850838492882</v>
+        <v>0.2060074250575113</v>
       </c>
     </row>
     <row r="16">
@@ -1380,23 +1341,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1504.465673301621</v>
+        <v>1363.814051531011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007635467102107696</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2526.408274836029</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.000150852941912307</v>
+        <v>0.01544041256141152</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,10 +1390,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-583.7607534865236</v>
+        <v>1266.325715534339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7009291638821317</v>
+        <v>0.3878836407854694</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1403,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>701.8199803292456</v>
+        <v>659.7500608362739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.490432710561726</v>
+        <v>0.5172529802302699</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1416,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>720.9027341693759</v>
+        <v>672.3517792751015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4613651905234</v>
+        <v>0.492544629277813</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1429,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.104257331252</v>
+        <v>1616.899124856752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09107016010562252</v>
+        <v>0.09772593299526942</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.26785073823717</v>
+        <v>34.22212300259033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4077329169443252</v>
+        <v>0.394937777042395</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1283.191500965684</v>
+        <v>-1288.123670426892</v>
       </c>
       <c r="C7" t="n">
-        <v>2.048786412906795e-30</v>
+        <v>1.423088052056284e-30</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.983539793725027</v>
+        <v>-9.739417140837542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04903987942922815</v>
+        <v>0.05509973195487382</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.5213370067214</v>
+        <v>196.5408866841872</v>
       </c>
       <c r="C9" t="n">
-        <v>1.548722125698586e-09</v>
+        <v>8.915169212432727e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.1685857756894</v>
+        <v>420.8066695788975</v>
       </c>
       <c r="C10" t="n">
-        <v>1.483777548961002e-79</v>
+        <v>7.441097117223622e-77</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.00738619292760432</v>
+        <v>0.001875776572610625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5513678813143341</v>
+        <v>0.8782539551505002</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.937432287975203e-06</v>
+        <v>2.24087785197827e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7256496529881957</v>
+        <v>0.2504637761843651</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.685607307123138</v>
+        <v>-3.359575307485041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7746113663561709</v>
+        <v>0.5616438858074808</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.99864556718244</v>
+        <v>6.558793917742095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05487327246574399</v>
+        <v>0.3880209221237922</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-831.233673112442</v>
+        <v>-1463.077589965673</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2646403412301429</v>
+        <v>0.04595542112434531</v>
       </c>
     </row>
     <row r="16">
@@ -1624,23 +1572,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>842.6949332037902</v>
+        <v>686.7032120914314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1343658078268923</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3019.448372924573</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.072564459693287e-06</v>
+        <v>0.2221271414362214</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1321.551012888364</v>
+        <v>3121.963938365183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3781304087098454</v>
+        <v>0.03056020038965604</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>825.1467438880245</v>
+        <v>786.0563837035394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4023210696987405</v>
+        <v>0.4254349750153825</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>811.8835678358482</v>
+        <v>763.172815456074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3905965149576786</v>
+        <v>0.4200930511908365</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1772.181230239138</v>
+        <v>1737.509929891796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06002825330167061</v>
+        <v>0.06547761838691996</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.14671483028839</v>
+        <v>35.4910296921601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3914541204915185</v>
+        <v>0.3735534932989658</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1301.302132492614</v>
+        <v>-1306.378488241824</v>
       </c>
       <c r="C7" t="n">
-        <v>2.762009776219429e-31</v>
+        <v>1.856913346460539e-31</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.38260949759528</v>
+        <v>-12.46041659890538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01510728087238344</v>
+        <v>0.01458278235700877</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.9690648039056</v>
+        <v>206.4732991988405</v>
       </c>
       <c r="C9" t="n">
-        <v>1.338962315153566e-10</v>
+        <v>8.260514890315115e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.9419050269357</v>
+        <v>431.4682763347117</v>
       </c>
       <c r="C10" t="n">
-        <v>2.204613405157004e-83</v>
+        <v>1.309757524628072e-81</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.008621667690382456</v>
+        <v>0.000108080190726687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4863961067834947</v>
+        <v>0.9929530083203491</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.355995381424888e-05</v>
+        <v>2.895262745026436e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4905412511695947</v>
+        <v>0.1350145067387518</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.90246595912627</v>
+        <v>-6.933729661848739</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7468263946076299</v>
+        <v>0.2307723647805866</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.725513361254613</v>
+        <v>-9.77513659278242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8255463244984131</v>
+        <v>0.1993876801470882</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1127.411208918019</v>
+        <v>-1771.340845090277</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1328545196869658</v>
+        <v>0.01615122843751668</v>
       </c>
     </row>
     <row r="16">
@@ -1868,23 +1803,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.3732558611631</v>
+        <v>570.7591806369392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2043936673964886</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2885.799778093011</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.229466320156847e-05</v>
+        <v>0.3095798914553685</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,10 +1852,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2378.744629915376</v>
+        <v>3941.89633887537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1255765683702301</v>
+        <v>0.008420557360588108</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1865,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1430.452865394398</v>
+        <v>1353.653708063912</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1754213353309697</v>
+        <v>0.1999942661677239</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1878,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1179.904706905374</v>
+        <v>1107.257990418382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2461705891027984</v>
+        <v>0.2767193524518565</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1891,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2061.464063880255</v>
+        <v>2002.257979909915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04201433883015469</v>
+        <v>0.04840328905010303</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1904,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.79310989491601</v>
+        <v>37.78263282973487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3731736831193847</v>
+        <v>0.3475013387342906</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1917,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1252.632154323406</v>
+        <v>-1257.785161473293</v>
       </c>
       <c r="C7" t="n">
-        <v>6.15373871130937e-29</v>
+        <v>3.990613771328809e-29</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.37350424632936</v>
+        <v>-13.1885668232519</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008527858060382665</v>
+        <v>0.00953324118138966</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>179.6987092003609</v>
+        <v>182.0085764155222</v>
       </c>
       <c r="C9" t="n">
-        <v>1.948864286292349e-08</v>
+        <v>1.304148999929353e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429.8206527791115</v>
+        <v>395.257292974787</v>
       </c>
       <c r="C10" t="n">
-        <v>9.603540728143535e-69</v>
+        <v>4.970148296152017e-68</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01206340081669634</v>
+        <v>-0.004565609248269633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3338851579192457</v>
+        <v>0.711133607896691</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.884267322278682e-06</v>
+        <v>1.513999596516466e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9240111187876345</v>
+        <v>0.4361996139358255</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.476829565768709</v>
+        <v>-13.70609528873661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1097681927061229</v>
+        <v>0.01852670095555816</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.07743521248636</v>
+        <v>-15.03046825265228</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3050147701031933</v>
+        <v>0.04959980494127594</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-306.4431397219337</v>
+        <v>-857.6896786451637</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6827376828280968</v>
+        <v>0.2435464563679881</v>
       </c>
     </row>
     <row r="16">
@@ -2112,23 +2034,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1264.950835487229</v>
+        <v>1130.295310514063</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02523635938138626</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2475.481153840133</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0002036313543577991</v>
+        <v>0.04525402446426108</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,10 +2083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>842.65998369958</v>
+        <v>2410.883204206151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5780513488636563</v>
+        <v>0.09884887848098158</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>968.5100474413645</v>
+        <v>911.2814980871199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3366265020367183</v>
+        <v>0.3662775929020967</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>934.0906637930194</v>
+        <v>885.4651316176287</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3349163451178361</v>
+        <v>0.3610186551539152</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1851.429328487838</v>
+        <v>1813.228300485958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05508805762567355</v>
+        <v>0.06048558508232495</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.447902150029858</v>
+        <v>-7.604059483646051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8141476449883986</v>
+        <v>0.8500409670259965</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1292.147883136498</v>
+        <v>-1298.187279028679</v>
       </c>
       <c r="C7" t="n">
-        <v>1.801871405756778e-30</v>
+        <v>1.065374116981715e-30</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.141900177055616</v>
+        <v>-9.026388538806387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07566016599418232</v>
+        <v>0.07966131494009218</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219.6929951021695</v>
+        <v>222.4791089555533</v>
       </c>
       <c r="C9" t="n">
-        <v>7.011428462454314e-12</v>
+        <v>3.907541962582592e-12</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>440.512025330628</v>
+        <v>404.7377322600441</v>
       </c>
       <c r="C10" t="n">
-        <v>9.21133423963321e-72</v>
+        <v>9.481745720899672e-71</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0148525235816674</v>
+        <v>-0.00731752960235454</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2351155738881615</v>
+        <v>0.5540159847341339</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.518561805631733e-06</v>
+        <v>1.867673461584541e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8218001054100158</v>
+        <v>0.344079430168493</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.350915399002004</v>
+        <v>-5.594570945067469</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8196906654710817</v>
+        <v>0.3371219279980421</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8448845579522986</v>
+        <v>-6.166754286479988</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9143130239905707</v>
+        <v>0.4198982760563417</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.81687335776749</v>
+        <v>-560.4493601456481</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9749109809294129</v>
+        <v>0.4504386614406494</v>
       </c>
     </row>
     <row r="16">
@@ -2356,23 +2265,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1270.139530749772</v>
+        <v>1142.279290804668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02495115511589098</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2576.539054058287</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0001134298708987113</v>
+        <v>0.04355232362951891</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,10 +2314,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.9777614048743</v>
+        <v>2349.698600814344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6602167046583898</v>
+        <v>0.1208141162756763</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2327,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>762.4317653088815</v>
+        <v>776.379668048213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4768005841753322</v>
+        <v>0.4691817375948192</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2340,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>782.8696901580112</v>
+        <v>782.9760126675537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4499579152266726</v>
+        <v>0.4503126350050624</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2353,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1672.381919064916</v>
+        <v>1691.781112740426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1057574387590278</v>
+        <v>0.1020837070422657</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2366,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.037361516903964</v>
+        <v>7.850156901223588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.860065284351569</v>
+        <v>0.8442392618031795</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2379,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1345.889224854322</v>
+        <v>-1351.729735412055</v>
       </c>
       <c r="C7" t="n">
-        <v>4.71518379310548e-33</v>
+        <v>2.854854914343354e-33</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2392,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.87794998100712</v>
+        <v>-12.70741854913534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01183778730345415</v>
+        <v>0.01308582603219123</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2405,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>187.2850230372941</v>
+        <v>189.5170616311917</v>
       </c>
       <c r="C9" t="n">
-        <v>4.883779955009357e-09</v>
+        <v>3.296939677718167e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.5471795430918</v>
+        <v>414.3203518240083</v>
       </c>
       <c r="C10" t="n">
-        <v>7.665984996493868e-76</v>
+        <v>4.239646437282402e-74</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01675839794845372</v>
+        <v>-0.007948418859951949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1816080712211121</v>
+        <v>0.5207214148802871</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.006066002605822e-06</v>
+        <v>2.197962349743862e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6876256378518751</v>
+        <v>0.263205665599948</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06168009899576143</v>
+        <v>-4.720686157970848</v>
       </c>
       <c r="C13" t="n">
-        <v>0.99170312513193</v>
+        <v>0.4176558478888245</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.327466347512345</v>
+        <v>-1.399114126811717</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4232243030666653</v>
+        <v>0.8555656625276247</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1300.696503429195</v>
+        <v>-1894.159878082716</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08556153773223489</v>
+        <v>0.01086846694185685</v>
       </c>
     </row>
     <row r="16">
@@ -2600,23 +2496,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1409.02292054315</v>
+        <v>1259.955247967136</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01280370843125633</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2772.029021112467</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.21370152738139e-05</v>
+        <v>0.02585757745787633</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Paris.xlsx
+++ b/outputs/ML_Results/dist_commute/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42790531" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ43132434" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43533241" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43933553" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ44301483" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ44838987" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ45267929" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ45751457" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ46283859" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ41795759" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42327778" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ42911536" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43398758" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43951019" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ44437572" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ44941698" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ45452555" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ45998564" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3082.02993642058</v>
+        <v>3333.884517291619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03488285520740619</v>
+        <v>0.05530283232459633</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289.5526899254211</v>
+        <v>2128.519534467844</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7761072269425653</v>
+        <v>0.07666988547201899</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.8156547238273</v>
+        <v>1234.185199351914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6573313713957241</v>
+        <v>0.2850982035725285</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1379.954069725993</v>
+        <v>2394.676606340527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1568021748160325</v>
+        <v>0.03738619458386939</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.71664463712679</v>
+        <v>28.97614993917806</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7129043095754726</v>
+        <v>0.5484717893129766</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1172.708020689024</v>
+        <v>-2085.180090199774</v>
       </c>
       <c r="C7" t="n">
-        <v>9.783801267699822e-26</v>
+        <v>5.700253414152807e-53</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.08041078659482</v>
+        <v>-10.35140323437627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0175826474956515</v>
+        <v>0.09103668970192491</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.4155016618355</v>
+        <v>230.1290670843572</v>
       </c>
       <c r="C9" t="n">
-        <v>3.859960579893676e-10</v>
+        <v>1.90129938516473e-09</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.0539192767027</v>
+        <v>362.3909321708696</v>
       </c>
       <c r="C10" t="n">
-        <v>4.482502834575594e-78</v>
+        <v>6.186447328424973e-42</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.008294570292385128</v>
+        <v>-0.02193255556009303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5011926264720887</v>
+        <v>0.1496223375945812</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.182019297321767e-05</v>
+        <v>5.083756630431481e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1044417154785549</v>
+        <v>0.03267464811159117</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.095916585970661</v>
+        <v>1.878249949811002</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1607594045814308</v>
+        <v>0.7875536059888376</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.74468937047702</v>
+        <v>-7.894754793687333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3703014501747884</v>
+        <v>0.3927067541378154</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1403.322831310512</v>
+        <v>-445.6675851652823</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05400207174062887</v>
+        <v>0.6179055844558758</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1317.068623538143</v>
+        <v>829.645930387248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01900918728546259</v>
+        <v>0.2279142968907035</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2936.059940372899</v>
+        <v>4834.534951401297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04424764539394235</v>
+        <v>0.006076196875963239</v>
       </c>
     </row>
     <row r="3">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1083.794585819245</v>
+        <v>1666.287672881501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2794240359653673</v>
+        <v>0.1771102339776414</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>915.4514830917999</v>
+        <v>815.6684865653043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3427869757188405</v>
+        <v>0.4932437659818441</v>
       </c>
     </row>
     <row r="5">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1889.925613922583</v>
+        <v>2171.815454293006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04942761110625559</v>
+        <v>0.06728765508077504</v>
       </c>
     </row>
     <row r="6">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9771502127033607</v>
+        <v>48.66438000878613</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9806585625393509</v>
+        <v>0.3115700769779465</v>
       </c>
     </row>
     <row r="7">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1267.918844434126</v>
+        <v>-1993.608341436043</v>
       </c>
       <c r="C7" t="n">
-        <v>1.355466672656549e-29</v>
+        <v>1.247798416549321e-48</v>
       </c>
     </row>
     <row r="8">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.1426854791798</v>
+        <v>-9.628198443058889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04601379714827661</v>
+        <v>0.1164956526754165</v>
       </c>
     </row>
     <row r="9">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>213.288042222017</v>
+        <v>225.859684107082</v>
       </c>
       <c r="C9" t="n">
-        <v>2.276740447097333e-11</v>
+        <v>3.820974040335046e-09</v>
       </c>
     </row>
     <row r="10">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>401.9986297435647</v>
+        <v>359.1184355095525</v>
       </c>
       <c r="C10" t="n">
-        <v>1.878220970067944e-70</v>
+        <v>4.347483122303198e-41</v>
       </c>
     </row>
     <row r="11">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.005960568523701856</v>
+        <v>-0.009121215013464152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6282391863695269</v>
+        <v>0.5474902545733791</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.316693274447555e-05</v>
+        <v>2.722064858517169e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4982129247313821</v>
+        <v>0.2507784307134978</v>
       </c>
     </row>
     <row r="13">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.269863321769025</v>
+        <v>-7.758079423573134</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3649826249995276</v>
+        <v>0.2650929544503191</v>
       </c>
     </row>
     <row r="14">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.757016008303335</v>
+        <v>-16.86587535065478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2041756050796533</v>
+        <v>0.06672430533998083</v>
       </c>
     </row>
     <row r="15">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-749.9087993906159</v>
+        <v>-260.4872404761244</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3070544178409945</v>
+        <v>0.7692915578308341</v>
       </c>
     </row>
     <row r="16">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.5102017971617</v>
+        <v>1144.891043515906</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1073564731370187</v>
+        <v>0.09481191363221902</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2351.834568800614</v>
+        <v>3497.847207692434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1171613902030304</v>
+        <v>0.04729175827712062</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1525.86372672662</v>
+        <v>1893.491021072201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.149654281056607</v>
+        <v>0.1280495495171532</v>
       </c>
     </row>
     <row r="4">
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1272.922207344458</v>
+        <v>1368.800069279974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2130539847324295</v>
+        <v>0.2521510904159085</v>
       </c>
     </row>
     <row r="5">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2209.771991406836</v>
+        <v>2470.46620273696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03011839541208311</v>
+        <v>0.03807203674694036</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.79301161817646</v>
+        <v>24.48672482349188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5400735722589076</v>
+        <v>0.6129358631809101</v>
       </c>
     </row>
     <row r="7">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1293.514643983627</v>
+        <v>-2017.917956414351</v>
       </c>
       <c r="C7" t="n">
-        <v>1.995793624172176e-30</v>
+        <v>2.304715047491285e-49</v>
       </c>
     </row>
     <row r="8">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.90551572776127</v>
+        <v>-11.22314128780976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003426805743445652</v>
+        <v>0.06869853293057218</v>
       </c>
     </row>
     <row r="9">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.7460808070682</v>
+        <v>217.5587708970225</v>
       </c>
       <c r="C9" t="n">
-        <v>5.684264942789253e-10</v>
+        <v>1.452911398906392e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>417.8646674166266</v>
+        <v>346.533084358303</v>
       </c>
       <c r="C10" t="n">
-        <v>5.216413755488153e-76</v>
+        <v>7.966018072492671e-38</v>
       </c>
     </row>
     <row r="11">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.009019308508505791</v>
+        <v>-0.01129911672627439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.466245599545844</v>
+        <v>0.4591457199730766</v>
       </c>
     </row>
     <row r="12">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.282051990601567e-05</v>
+        <v>2.201267868386783e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2433867697349052</v>
+        <v>0.3587182992410174</v>
       </c>
     </row>
     <row r="13">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.173189214437407</v>
+        <v>-1.985550179997512</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5901303841404552</v>
+        <v>0.7758810457970438</v>
       </c>
     </row>
     <row r="14">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.432573053750374</v>
+        <v>-6.445193420179375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4813729509721361</v>
+        <v>0.481033735183098</v>
       </c>
     </row>
     <row r="15">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1269.932446363141</v>
+        <v>-780.5093247946569</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08473935513976476</v>
+        <v>0.3879917003000181</v>
       </c>
     </row>
     <row r="16">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>798.7503097740057</v>
+        <v>1242.239114480451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1610778309683021</v>
+        <v>0.07259250018281785</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3465.721237580303</v>
+        <v>4424.374014308371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01930506618609283</v>
+        <v>0.01068458115477721</v>
       </c>
     </row>
     <row r="3">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1013.669623579725</v>
+        <v>2417.602553860843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3370914776263489</v>
+        <v>0.04455420883270698</v>
       </c>
     </row>
     <row r="4">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.9551120404151</v>
+        <v>1456.208107480639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.445029284631722</v>
+        <v>0.2081198935625696</v>
       </c>
     </row>
     <row r="5">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1728.980003930343</v>
+        <v>2669.238851625282</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08816030397153268</v>
+        <v>0.02060427621446629</v>
       </c>
     </row>
     <row r="6">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.387067715760807</v>
+        <v>3.533837223251208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.952380186938546</v>
+        <v>0.9419113593882388</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1284.688865154563</v>
+        <v>-2010.254702196166</v>
       </c>
       <c r="C7" t="n">
-        <v>2.396628638923116e-30</v>
+        <v>2.71054869723375e-49</v>
       </c>
     </row>
     <row r="8">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.702618034843532</v>
+        <v>-16.99200637214635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187017442809713</v>
+        <v>0.005700682230477878</v>
       </c>
     </row>
     <row r="9">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>212.6744517583871</v>
+        <v>245.6712263695963</v>
       </c>
       <c r="C9" t="n">
-        <v>2.17229962366004e-11</v>
+        <v>1.551002851594306e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.6668612780862</v>
+        <v>331.6462864690779</v>
       </c>
       <c r="C10" t="n">
-        <v>1.777574302748596e-72</v>
+        <v>3.819099017408769e-35</v>
       </c>
     </row>
     <row r="11">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.008497996135605831</v>
+        <v>-0.004297026930500352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4842898114527407</v>
+        <v>0.7773030412423122</v>
       </c>
     </row>
     <row r="12">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.672941681886504e-05</v>
+        <v>1.344871150358801e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3850157517380138</v>
+        <v>0.5728743661189324</v>
       </c>
     </row>
     <row r="13">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-10.34278734068034</v>
+        <v>-6.672404188354889</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07479066853739939</v>
+        <v>0.3367759859570624</v>
       </c>
     </row>
     <row r="14">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-13.50124587715675</v>
+        <v>-13.67659515743155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07872174715265982</v>
+        <v>0.1307596459334557</v>
       </c>
     </row>
     <row r="15">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-933.6623554205889</v>
+        <v>-26.75862607312357</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2060074250575113</v>
+        <v>0.9759163077016103</v>
       </c>
     </row>
     <row r="16">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1363.814051531011</v>
+        <v>1361.398557003541</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01544041256141152</v>
+        <v>0.0474069354958138</v>
       </c>
     </row>
   </sheetData>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1266.325715534339</v>
+        <v>3859.989279990237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3878836407854694</v>
+        <v>0.02741574219762747</v>
       </c>
     </row>
     <row r="3">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659.7500608362739</v>
+        <v>1686.746821725891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5172529802302699</v>
+        <v>0.1697449213028663</v>
       </c>
     </row>
     <row r="4">
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>672.3517792751015</v>
+        <v>845.9461554734429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492544629277813</v>
+        <v>0.473214538915923</v>
       </c>
     </row>
     <row r="5">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1616.899124856752</v>
+        <v>1961.242591911188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09772593299526942</v>
+        <v>0.09521563946890439</v>
       </c>
     </row>
     <row r="6">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.22212300259033</v>
+        <v>38.01179196327428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.394937777042395</v>
+        <v>0.4306807541566841</v>
       </c>
     </row>
     <row r="7">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1288.123670426892</v>
+        <v>-2032.80924187453</v>
       </c>
       <c r="C7" t="n">
-        <v>1.423088052056284e-30</v>
+        <v>6.978787378260444e-50</v>
       </c>
     </row>
     <row r="8">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.739417140837542</v>
+        <v>-12.91254467005841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05509973195487382</v>
+        <v>0.03595202191575341</v>
       </c>
     </row>
     <row r="9">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.5408866841872</v>
+        <v>254.8794348613142</v>
       </c>
       <c r="C9" t="n">
-        <v>8.915169212432727e-10</v>
+        <v>4.309903942486311e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>420.8066695788975</v>
+        <v>351.889518508562</v>
       </c>
       <c r="C10" t="n">
-        <v>7.441097117223622e-77</v>
+        <v>7.983073251723869e-39</v>
       </c>
     </row>
     <row r="11">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001875776572610625</v>
+        <v>-0.01663313438602393</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8782539551505002</v>
+        <v>0.2796612857476106</v>
       </c>
     </row>
     <row r="12">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.24087785197827e-05</v>
+        <v>3.717336537462956e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2504637761843651</v>
+        <v>0.1237293447478639</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.359575307485041</v>
+        <v>-1.087183152467467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5616438858074808</v>
+        <v>0.8766185844594423</v>
       </c>
     </row>
     <row r="14">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.558793917742095</v>
+        <v>-4.463451710506911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3880209221237922</v>
+        <v>0.627374607497063</v>
       </c>
     </row>
     <row r="15">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1463.077589965673</v>
+        <v>-1008.47639816715</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04595542112434531</v>
+        <v>0.2643552808360521</v>
       </c>
     </row>
     <row r="16">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>686.7032120914314</v>
+        <v>704.8240004601157</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2221271414362214</v>
+        <v>0.3061734790939651</v>
       </c>
     </row>
   </sheetData>
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3121.963938365183</v>
+        <v>4863.310783392419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03056020038965604</v>
+        <v>0.006115042694628865</v>
       </c>
     </row>
     <row r="3">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786.0563837035394</v>
+        <v>1438.873237886652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4254349750153825</v>
+        <v>0.2493669668762205</v>
       </c>
     </row>
     <row r="4">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>763.172815456074</v>
+        <v>601.6387744498363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4200930511908365</v>
+        <v>0.6173048062167803</v>
       </c>
     </row>
     <row r="5">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1737.509929891796</v>
+        <v>1839.988167543143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06547761838691996</v>
+        <v>0.1252009280329941</v>
       </c>
     </row>
     <row r="6">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.4910296921601</v>
+        <v>25.59422777015924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3735534932989658</v>
+        <v>0.6005084457825854</v>
       </c>
     </row>
     <row r="7">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1306.378488241824</v>
+        <v>-2180.287289052646</v>
       </c>
       <c r="C7" t="n">
-        <v>1.856913346460539e-31</v>
+        <v>2.029698362004091e-56</v>
       </c>
     </row>
     <row r="8">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.46041659890538</v>
+        <v>-9.6118489597122</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01458278235700877</v>
+        <v>0.1231156823822177</v>
       </c>
     </row>
     <row r="9">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>206.4732991988405</v>
+        <v>222.0059203839459</v>
       </c>
       <c r="C9" t="n">
-        <v>8.260514890315115e-11</v>
+        <v>9.915979877326021e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.4682763347117</v>
+        <v>346.9122375331388</v>
       </c>
       <c r="C10" t="n">
-        <v>1.309757524628072e-81</v>
+        <v>5.857066868279067e-38</v>
       </c>
     </row>
     <row r="11">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000108080190726687</v>
+        <v>-0.009437586452025732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9929530083203491</v>
+        <v>0.5366131744032182</v>
       </c>
     </row>
     <row r="12">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.895262745026436e-05</v>
+        <v>2.085871453916802e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1350145067387518</v>
+        <v>0.3844197084775544</v>
       </c>
     </row>
     <row r="13">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.933729661848739</v>
+        <v>-2.22392750552179</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2307723647805866</v>
+        <v>0.7517177123855829</v>
       </c>
     </row>
     <row r="14">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.77513659278242</v>
+        <v>-11.94358773018938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1993876801470882</v>
+        <v>0.1935273632115745</v>
       </c>
     </row>
     <row r="15">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1771.340845090277</v>
+        <v>-325.9450856722646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01615122843751668</v>
+        <v>0.71929050513688</v>
       </c>
     </row>
     <row r="16">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>570.7591806369392</v>
+        <v>686.2800056310971</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3095798914553685</v>
+        <v>0.3230154392450579</v>
       </c>
     </row>
   </sheetData>
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3941.89633887537</v>
+        <v>3747.656994698161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008420557360588108</v>
+        <v>0.0370584751351815</v>
       </c>
     </row>
     <row r="3">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1353.653708063912</v>
+        <v>1573.334014520866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1999942661677239</v>
+        <v>0.2192368788018541</v>
       </c>
     </row>
     <row r="4">
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1107.257990418382</v>
+        <v>908.500252407189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2767193524518565</v>
+        <v>0.4618863272618908</v>
       </c>
     </row>
     <row r="5">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2002.257979909915</v>
+        <v>1966.510516490388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04840328905010303</v>
+        <v>0.1104313683576036</v>
       </c>
     </row>
     <row r="6">
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.78263282973487</v>
+        <v>-3.635844400020844</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3475013387342906</v>
+        <v>0.9406701426044908</v>
       </c>
     </row>
     <row r="7">
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1257.785161473293</v>
+        <v>-2027.431506027365</v>
       </c>
       <c r="C7" t="n">
-        <v>3.990613771328809e-29</v>
+        <v>1.121740894510706e-49</v>
       </c>
     </row>
     <row r="8">
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.1885668232519</v>
+        <v>-13.66904349585626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00953324118138966</v>
+        <v>0.02598016867623929</v>
       </c>
     </row>
     <row r="9">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182.0085764155222</v>
+        <v>267.3405809416475</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304148999929353e-08</v>
+        <v>3.307951599535107e-12</v>
       </c>
     </row>
     <row r="10">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>395.257292974787</v>
+        <v>363.8128609152782</v>
       </c>
       <c r="C10" t="n">
-        <v>4.970148296152017e-68</v>
+        <v>8.74668900547289e-42</v>
       </c>
     </row>
     <row r="11">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.004565609248269633</v>
+        <v>-0.02728864774328992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.711133607896691</v>
+        <v>0.07383603498207683</v>
       </c>
     </row>
     <row r="12">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.513999596516466e-05</v>
+        <v>5.433792120356124e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4361996139358255</v>
+        <v>0.02377971441171458</v>
       </c>
     </row>
     <row r="13">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-13.70609528873661</v>
+        <v>3.139798615952346</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01852670095555816</v>
+        <v>0.6525183773942116</v>
       </c>
     </row>
     <row r="14">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-15.03046825265228</v>
+        <v>-8.714234055438448</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04959980494127594</v>
+        <v>0.3411609792760525</v>
       </c>
     </row>
     <row r="15">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-857.6896786451637</v>
+        <v>-257.9222432760087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2435464563679881</v>
+        <v>0.7729782579946297</v>
       </c>
     </row>
     <row r="16">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1130.295310514063</v>
+        <v>920.2910917226307</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04525402446426108</v>
+        <v>0.1817890402477879</v>
       </c>
     </row>
   </sheetData>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2410.883204206151</v>
+        <v>3581.282755352313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09884887848098158</v>
+        <v>0.05123586021592796</v>
       </c>
     </row>
     <row r="3">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>911.2814980871199</v>
+        <v>2929.957309969732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3662775929020967</v>
+        <v>0.02747608641434858</v>
       </c>
     </row>
     <row r="4">
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>885.4651316176287</v>
+        <v>1787.542084116655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3610186551539152</v>
+        <v>0.1642990423289841</v>
       </c>
     </row>
     <row r="5">
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1813.228300485958</v>
+        <v>2999.27988005543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06048558508232495</v>
+        <v>0.01922433407594687</v>
       </c>
     </row>
     <row r="6">
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.604059483646051</v>
+        <v>10.83712588967674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8500409670259965</v>
+        <v>0.8239147349522381</v>
       </c>
     </row>
     <row r="7">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1298.187279028679</v>
+        <v>-2142.845474160496</v>
       </c>
       <c r="C7" t="n">
-        <v>1.065374116981715e-30</v>
+        <v>1.101409621027098e-54</v>
       </c>
     </row>
     <row r="8">
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.026388538806387</v>
+        <v>-11.33880232692506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07966131494009218</v>
+        <v>0.06822170188224091</v>
       </c>
     </row>
     <row r="9">
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.4791089555533</v>
+        <v>239.224747362652</v>
       </c>
       <c r="C9" t="n">
-        <v>3.907541962582592e-12</v>
+        <v>8.185548354205234e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.7377322600441</v>
+        <v>355.1814645890149</v>
       </c>
       <c r="C10" t="n">
-        <v>9.481745720899672e-71</v>
+        <v>2.697152687728699e-39</v>
       </c>
     </row>
     <row r="11">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.00731752960235454</v>
+        <v>-0.01522833968793964</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5540159847341339</v>
+        <v>0.3235221721610488</v>
       </c>
     </row>
     <row r="12">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.867673461584541e-05</v>
+        <v>3.91457645000275e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.344079430168493</v>
+        <v>0.1066205871719586</v>
       </c>
     </row>
     <row r="13">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.594570945067469</v>
+        <v>-0.9851843289638764</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3371219279980421</v>
+        <v>0.888683243021803</v>
       </c>
     </row>
     <row r="14">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.166754286479988</v>
+        <v>-12.20871837235203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4198982760563417</v>
+        <v>0.1872537906507958</v>
       </c>
     </row>
     <row r="15">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-560.4493601456481</v>
+        <v>-953.2558454047469</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4504386614406494</v>
+        <v>0.2910234034762064</v>
       </c>
     </row>
     <row r="16">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1142.279290804668</v>
+        <v>764.2740485795526</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04355232362951891</v>
+        <v>0.2708512232656134</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2349.698600814344</v>
+        <v>3885.830129297857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1208141162756763</v>
+        <v>0.02599459012595446</v>
       </c>
     </row>
     <row r="3">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>776.379668048213</v>
+        <v>1631.715796138171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4691817375948192</v>
+        <v>0.1804276709358235</v>
       </c>
     </row>
     <row r="4">
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>782.9760126675537</v>
+        <v>759.5230484385924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4503126350050624</v>
+        <v>0.5161659615105374</v>
       </c>
     </row>
     <row r="5">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1691.781112740426</v>
+        <v>1725.084165782118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1020837070422657</v>
+        <v>0.1390317081243264</v>
       </c>
     </row>
     <row r="6">
@@ -2366,10 +2366,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.850156901223588</v>
+        <v>8.425120602147871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8442392618031795</v>
+        <v>0.8617438965006758</v>
       </c>
     </row>
     <row r="7">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1351.729735412055</v>
+        <v>-2121.5452239001</v>
       </c>
       <c r="C7" t="n">
-        <v>2.854854914343354e-33</v>
+        <v>3.852383014996391e-55</v>
       </c>
     </row>
     <row r="8">
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.70741854913534</v>
+        <v>-15.76543411887545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01308582603219123</v>
+        <v>0.0101863600957863</v>
       </c>
     </row>
     <row r="9">
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>189.5170616311917</v>
+        <v>256.5699449538836</v>
       </c>
       <c r="C9" t="n">
-        <v>3.296939677718167e-09</v>
+        <v>1.911896718567225e-11</v>
       </c>
     </row>
     <row r="10">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>414.3203518240083</v>
+        <v>359.5079098862459</v>
       </c>
       <c r="C10" t="n">
-        <v>4.239646437282402e-74</v>
+        <v>5.307357380409488e-41</v>
       </c>
     </row>
     <row r="11">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.007948418859951949</v>
+        <v>-0.01267871879634117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5207214148802871</v>
+        <v>0.4027227567885471</v>
       </c>
     </row>
     <row r="12">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.197962349743862e-05</v>
+        <v>4.643969806662647e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.263205665599948</v>
+        <v>0.05187071821838171</v>
       </c>
     </row>
     <row r="13">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.720686157970848</v>
+        <v>-3.021615279353583</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4176558478888245</v>
+        <v>0.661769712574376</v>
       </c>
     </row>
     <row r="14">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.399114126811717</v>
+        <v>-6.684849697766093</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8555656625276247</v>
+        <v>0.464746094182973</v>
       </c>
     </row>
     <row r="15">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1894.159878082716</v>
+        <v>-47.92052529643513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01086846694185685</v>
+        <v>0.957062717999558</v>
       </c>
     </row>
     <row r="16">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1259.955247967136</v>
+        <v>1328.844035364775</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02585757745787633</v>
+        <v>0.05251653477032296</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Paris.xlsx
+++ b/outputs/ML_Results/dist_commute/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ41795759" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42327778" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ42911536" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43398758" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43951019" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ44437572" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ44941698" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ45452555" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ45998564" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ12186826" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ12667636" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13167217" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13649434" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ14208109" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14700449" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ15200074" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ15866536" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ16802683" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Paris.xlsx
+++ b/outputs/ML_Results/dist_commute/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ12186826" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ12667636" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13167217" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13649434" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ14208109" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14700449" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ15200074" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ15866536" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ16802683" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05941907" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06426750" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06964173" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ07528846" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ08070252" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ08609863" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ09135449" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ09694378" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ10227976" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3333.884517291619</v>
+        <v>3544.846305199956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05530283232459633</v>
+        <v>0.04128468227981567</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2128.519534467844</v>
+        <v>2054.252101778329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07666988547201899</v>
+        <v>0.08745291500790024</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1234.185199351914</v>
+        <v>1177.174284269203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2850982035725285</v>
+        <v>0.3078943518408005</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2394.676606340527</v>
+        <v>2361.721143526228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03738619458386939</v>
+        <v>0.04010205097723845</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.97614993917806</v>
+        <v>26.47601737150941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5484717893129766</v>
+        <v>0.5834579499064489</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2085.180090199774</v>
+        <v>-2084.208051005231</v>
       </c>
       <c r="C7" t="n">
-        <v>5.700253414152807e-53</v>
+        <v>6.616484532841099e-53</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.35140323437627</v>
+        <v>-9.89581559025642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09103668970192491</v>
+        <v>0.1060350009825127</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230.1290670843572</v>
+        <v>222.4739707045756</v>
       </c>
       <c r="C9" t="n">
-        <v>1.90129938516473e-09</v>
+        <v>5.50646434477899e-09</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.3909321708696</v>
+        <v>349.558126828088</v>
       </c>
       <c r="C10" t="n">
-        <v>6.186447328424973e-42</v>
+        <v>3.82330030103959e-41</v>
       </c>
     </row>
     <row r="11">
@@ -583,75 +583,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02193255556009303</v>
+        <v>-0.001989458647196285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1496223375945812</v>
+        <v>0.8685866462162281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.083756630431481e-05</v>
+        <v>2.192758336275105</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03267464811159117</v>
+        <v>0.7530447166997823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.878249949811002</v>
+        <v>-7.384625779968761</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7875536059888376</v>
+        <v>0.4239338000340125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.894754793687333</v>
+        <v>59.41824253724684</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3927067541378154</v>
+        <v>0.9450283230444749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-445.6675851652823</v>
+        <v>704.1350760139195</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6179055844558758</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>829.645930387248</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2279142968907035</v>
+        <v>0.3044597216925096</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,10 +684,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4834.534951401297</v>
+        <v>4955.538043964056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006076196875963239</v>
+        <v>0.00484324339472147</v>
       </c>
     </row>
     <row r="3">
@@ -710,10 +697,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1666.287672881501</v>
+        <v>1629.568941715585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1771102339776414</v>
+        <v>0.1867055297894581</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>815.6684865653043</v>
+        <v>781.8150518929297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4932437659818441</v>
+        <v>0.5112366163412675</v>
       </c>
     </row>
     <row r="5">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2171.815454293006</v>
+        <v>2150.711187303298</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06728765508077504</v>
+        <v>0.06996171772274995</v>
       </c>
     </row>
     <row r="6">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.66438000878613</v>
+        <v>47.76992030276735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3115700769779465</v>
+        <v>0.3204913382557934</v>
       </c>
     </row>
     <row r="7">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1993.608341436043</v>
+        <v>-1992.674034119955</v>
       </c>
       <c r="C7" t="n">
-        <v>1.247798416549321e-48</v>
+        <v>1.378309542604165e-48</v>
       </c>
     </row>
     <row r="8">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.628198443058889</v>
+        <v>-9.413768729779333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1164956526754165</v>
+        <v>0.1246888049070139</v>
       </c>
     </row>
     <row r="9">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.859684107082</v>
+        <v>221.8457335093643</v>
       </c>
       <c r="C9" t="n">
-        <v>3.820974040335046e-09</v>
+        <v>6.197305071647711e-09</v>
       </c>
     </row>
     <row r="10">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.1184355095525</v>
+        <v>352.0493174203322</v>
       </c>
       <c r="C10" t="n">
-        <v>4.347483122303198e-41</v>
+        <v>1.108101521786688e-41</v>
       </c>
     </row>
     <row r="11">
@@ -814,75 +801,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.009121215013464152</v>
+        <v>0.001513811990094631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5474902545733791</v>
+        <v>0.8996765817939003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.722064858517169e-05</v>
+        <v>-7.605266114091411</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2507784307134978</v>
+        <v>0.2745404082719192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.758079423573134</v>
+        <v>-16.6270839899265</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2650929544503191</v>
+        <v>0.07060586807715287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-16.86587535065478</v>
+        <v>11.51537962346418</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06672430533998083</v>
+        <v>0.9892663952855222</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-260.4872404761244</v>
+        <v>1080.233723949565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7692915578308341</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1144.891043515906</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09481191363221902</v>
+        <v>0.1137564955151276</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,10 +902,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3497.847207692434</v>
+        <v>3600.643120156491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04729175827712062</v>
+        <v>0.04074549863185727</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +915,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1893.491021072201</v>
+        <v>1873.999555253511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1280495495171532</v>
+        <v>0.131962959493843</v>
       </c>
     </row>
     <row r="4">
@@ -954,10 +928,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1368.800069279974</v>
+        <v>1349.100709785743</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2521510904159085</v>
+        <v>0.2589603786225078</v>
       </c>
     </row>
     <row r="5">
@@ -967,10 +941,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2470.46620273696</v>
+        <v>2461.265951518411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03807203674694036</v>
+        <v>0.03878642208487075</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.48672482349188</v>
+        <v>23.64114042842314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6129358631809101</v>
+        <v>0.6251884358307743</v>
       </c>
     </row>
     <row r="7">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2017.917956414351</v>
+        <v>-2017.696416528427</v>
       </c>
       <c r="C7" t="n">
-        <v>2.304715047491285e-49</v>
+        <v>2.355038333890568e-49</v>
       </c>
     </row>
     <row r="8">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.22314128780976</v>
+        <v>-11.03610170212546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06869853293057218</v>
+        <v>0.07328409931853526</v>
       </c>
     </row>
     <row r="9">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>217.5587708970225</v>
+        <v>214.0539410038874</v>
       </c>
       <c r="C9" t="n">
-        <v>1.452911398906392e-08</v>
+        <v>2.097997688759121e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.533084358303</v>
+        <v>340.6645888434942</v>
       </c>
       <c r="C10" t="n">
-        <v>7.966018072492671e-38</v>
+        <v>1.0517484528666e-38</v>
       </c>
     </row>
     <row r="11">
@@ -1045,75 +1019,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01129911672627439</v>
+        <v>-0.002742349580552128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4591457199730766</v>
+        <v>0.8204929208957097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.201267868386783e-05</v>
+        <v>-1.933591710811354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3587182992410174</v>
+        <v>0.7815863886062857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.985550179997512</v>
+        <v>-6.323008836446206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7758810457970438</v>
+        <v>0.4893382261795242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.445193420179375</v>
+        <v>-560.3896555960312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.481033735183098</v>
+        <v>0.5203244065167465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-780.5093247946569</v>
+        <v>1193.585557697164</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3879917003000181</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1242.239114480451</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07259250018281785</v>
+        <v>0.08359882491227347</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1120,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4424.374014308371</v>
+        <v>4485.307252809631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01068458115477721</v>
+        <v>0.009510649998416835</v>
       </c>
     </row>
     <row r="3">
@@ -1172,10 +1133,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2417.602553860843</v>
+        <v>2400.362874620095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04455420883270698</v>
+        <v>0.04601779838987259</v>
       </c>
     </row>
     <row r="4">
@@ -1185,10 +1146,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1456.208107480639</v>
+        <v>1441.008584323932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2081198935625696</v>
+        <v>0.2127658854392719</v>
       </c>
     </row>
     <row r="5">
@@ -1198,10 +1159,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2669.238851625282</v>
+        <v>2660.00967030478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02060427621446629</v>
+        <v>0.02102876112053611</v>
       </c>
     </row>
     <row r="6">
@@ -1211,10 +1172,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.533837223251208</v>
+        <v>3.03486955358624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9419113593882388</v>
+        <v>0.9500917056911755</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1185,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2010.254702196166</v>
+        <v>-2010.296693621762</v>
       </c>
       <c r="C7" t="n">
-        <v>2.71054869723375e-49</v>
+        <v>2.677819289008172e-49</v>
       </c>
     </row>
     <row r="8">
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.99200637214635</v>
+        <v>-16.89451180550054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005700682230477878</v>
+        <v>0.005962322351601942</v>
       </c>
     </row>
     <row r="9">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>245.6712263695963</v>
+        <v>243.6664867760868</v>
       </c>
       <c r="C9" t="n">
-        <v>1.551002851594306e-10</v>
+        <v>1.820292583175559e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.6462864690779</v>
+        <v>328.1508869823499</v>
       </c>
       <c r="C10" t="n">
-        <v>3.819099017408769e-35</v>
+        <v>2.665227930502254e-36</v>
       </c>
     </row>
     <row r="11">
@@ -1276,75 +1237,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.004297026930500352</v>
+        <v>0.0009272255934590122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7773030412423122</v>
+        <v>0.9386122426774073</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.344871150358801e-05</v>
+        <v>-6.595651276169091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5728743661189324</v>
+        <v>0.3422538645775854</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.672404188354889</v>
+        <v>-13.555619032079</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3367759859570624</v>
+        <v>0.1340758787731021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-13.67659515743155</v>
+        <v>103.0432348634985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1307596459334557</v>
+        <v>0.9041752926503521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.75862607312357</v>
+        <v>1327.188942563127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9759163077016103</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1361.398557003541</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0474069354958138</v>
+        <v>0.05231985922794944</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,10 +1338,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3859.989279990237</v>
+        <v>4019.781574178966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02741574219762747</v>
+        <v>0.0214076212066786</v>
       </c>
     </row>
     <row r="3">
@@ -1403,10 +1351,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1686.746821725891</v>
+        <v>1646.174282444901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1697449213028663</v>
+        <v>0.1801750776418928</v>
       </c>
     </row>
     <row r="4">
@@ -1416,10 +1364,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>845.9461554734429</v>
+        <v>804.7710704417821</v>
       </c>
       <c r="C4" t="n">
-        <v>0.473214538915923</v>
+        <v>0.4949378538405613</v>
       </c>
     </row>
     <row r="5">
@@ -1429,10 +1377,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1961.242591911188</v>
+        <v>1936.124813708008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09521563946890439</v>
+        <v>0.09952039226505999</v>
       </c>
     </row>
     <row r="6">
@@ -1442,10 +1390,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.01179196327428</v>
+        <v>36.99098867355567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4306807541566841</v>
+        <v>0.4431500074314154</v>
       </c>
     </row>
     <row r="7">
@@ -1455,10 +1403,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2032.80924187453</v>
+        <v>-2033.085578159571</v>
       </c>
       <c r="C7" t="n">
-        <v>6.978787378260444e-50</v>
+        <v>6.875557822407355e-50</v>
       </c>
     </row>
     <row r="8">
@@ -1468,10 +1416,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.91254467005841</v>
+        <v>-12.52097148287077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03595202191575341</v>
+        <v>0.04180313578568683</v>
       </c>
     </row>
     <row r="9">
@@ -1481,10 +1429,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.8794348613142</v>
+        <v>249.2215160247811</v>
       </c>
       <c r="C9" t="n">
-        <v>4.309903942486311e-11</v>
+        <v>9.427349439994667e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.889518508562</v>
+        <v>342.37174185702</v>
       </c>
       <c r="C10" t="n">
-        <v>7.983073251723869e-39</v>
+        <v>8.427561500610197e-39</v>
       </c>
     </row>
     <row r="11">
@@ -1507,75 +1455,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01663313438602393</v>
+        <v>-0.002023989807090721</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2796612857476106</v>
+        <v>0.8672691836818189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.717336537462956e-05</v>
+        <v>-0.9739269198818463</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1237293447478639</v>
+        <v>0.8893857852124158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.087183152467467</v>
+        <v>-4.146809599830578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8766185844594423</v>
+        <v>0.651938532542526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.463451710506911</v>
+        <v>-637.8014625798044</v>
       </c>
       <c r="C14" t="n">
-        <v>0.627374607497063</v>
+        <v>0.463952458763947</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1008.47639816715</v>
+        <v>619.908616303218</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2643552808360521</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>704.8240004601157</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3061734790939651</v>
+        <v>0.3666084263224706</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,10 +1556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4863.310783392419</v>
+        <v>4954.458640086405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006115042694628865</v>
+        <v>0.005144714916257376</v>
       </c>
     </row>
     <row r="3">
@@ -1634,10 +1569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1438.873237886652</v>
+        <v>1408.419719096833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2493669668762205</v>
+        <v>0.259333668168051</v>
       </c>
     </row>
     <row r="4">
@@ -1647,10 +1582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>601.6387744498363</v>
+        <v>573.1172546064863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6173048062167803</v>
+        <v>0.6339541267682864</v>
       </c>
     </row>
     <row r="5">
@@ -1660,10 +1595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1839.988167543143</v>
+        <v>1821.23381734953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1252009280329941</v>
+        <v>0.1290291888243527</v>
       </c>
     </row>
     <row r="6">
@@ -1673,10 +1608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.59422777015924</v>
+        <v>24.85307344272467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6005084457825854</v>
+        <v>0.6110404125569751</v>
       </c>
     </row>
     <row r="7">
@@ -1686,10 +1621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2180.287289052646</v>
+        <v>-2180.378215360716</v>
       </c>
       <c r="C7" t="n">
-        <v>2.029698362004091e-56</v>
+        <v>2.002182247140544e-56</v>
       </c>
     </row>
     <row r="8">
@@ -1699,10 +1634,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.6118489597122</v>
+        <v>-9.378557555854597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1231156823822177</v>
+        <v>0.1321128729381537</v>
       </c>
     </row>
     <row r="9">
@@ -1712,10 +1647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.0059203839459</v>
+        <v>218.9751668223693</v>
       </c>
       <c r="C9" t="n">
-        <v>9.915979877326021e-09</v>
+        <v>1.369756852851778e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1725,10 +1660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.9122375331388</v>
+        <v>341.4487259480837</v>
       </c>
       <c r="C10" t="n">
-        <v>5.857066868279067e-38</v>
+        <v>7.412474363209237e-39</v>
       </c>
     </row>
     <row r="11">
@@ -1738,75 +1673,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.009437586452025732</v>
+        <v>-0.001354634269055341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5366131744032182</v>
+        <v>0.9110044379170108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.085871453916802e-05</v>
+        <v>-2.092408889447499</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3844197084775544</v>
+        <v>0.7659030753426619</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.22392750552179</v>
+        <v>-11.73920411961823</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7517177123855829</v>
+        <v>0.2011080989068625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-11.94358773018938</v>
+        <v>-119.4394894110446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1935273632115745</v>
+        <v>0.8914555986605366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-325.9450856722646</v>
+        <v>637.0712032023437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.71929050513688</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>686.2800056310971</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3230154392450579</v>
+        <v>0.3573160694154186</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1852,10 +1774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3747.656994698161</v>
+        <v>3869.761934904278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0370584751351815</v>
+        <v>0.03127432283519211</v>
       </c>
     </row>
     <row r="3">
@@ -1865,10 +1787,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1573.334014520866</v>
+        <v>1606.707513223816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2192368788018541</v>
+        <v>0.2096820422572744</v>
       </c>
     </row>
     <row r="4">
@@ -1878,10 +1800,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>908.500252407189</v>
+        <v>944.8317257494683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4618863272618908</v>
+        <v>0.4442287581415921</v>
       </c>
     </row>
     <row r="5">
@@ -1891,10 +1813,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1966.510516490388</v>
+        <v>2029.099742507278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1104313683576036</v>
+        <v>0.0995316269156892</v>
       </c>
     </row>
     <row r="6">
@@ -1904,10 +1826,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.635844400020844</v>
+        <v>-5.523921160316092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9406701426044908</v>
+        <v>0.9099746786610096</v>
       </c>
     </row>
     <row r="7">
@@ -1917,10 +1839,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2027.431506027365</v>
+        <v>-2027.812666751732</v>
       </c>
       <c r="C7" t="n">
-        <v>1.121740894510706e-49</v>
+        <v>1.12635240611188e-49</v>
       </c>
     </row>
     <row r="8">
@@ -1930,10 +1852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.66904349585626</v>
+        <v>-13.14260654183491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02598016867623929</v>
+        <v>0.03220359634799131</v>
       </c>
     </row>
     <row r="9">
@@ -1943,10 +1865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.3405809416475</v>
+        <v>259.5972500457584</v>
       </c>
       <c r="C9" t="n">
-        <v>3.307951599535107e-12</v>
+        <v>1.133731014793758e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1956,10 +1878,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.8128609152782</v>
+        <v>349.8801596566756</v>
       </c>
       <c r="C10" t="n">
-        <v>8.74668900547289e-42</v>
+        <v>7.595840386645522e-41</v>
       </c>
     </row>
     <row r="11">
@@ -1969,75 +1891,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02728864774328992</v>
+        <v>-0.006058684963251657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07383603498207683</v>
+        <v>0.6147211675039181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.433792120356124e-05</v>
+        <v>3.48373118223749</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02377971441171458</v>
+        <v>0.6173548196446413</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.139798615952346</v>
+        <v>-8.116628166230507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6525183773942116</v>
+        <v>0.3751952211089432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.714234055438448</v>
+        <v>274.6168007698154</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3411609792760525</v>
+        <v>0.750230692775996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-257.9222432760087</v>
+        <v>783.3659355884224</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7729782579946297</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>920.2910917226307</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1817890402477879</v>
+        <v>0.2539573894453783</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +1960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2083,10 +1992,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3581.282755352313</v>
+        <v>3765.723436148458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05123586021592796</v>
+        <v>0.04000546742406522</v>
       </c>
     </row>
     <row r="3">
@@ -2096,10 +2005,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2929.957309969732</v>
+        <v>2863.386678845429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02747608641434858</v>
+        <v>0.03112503109802986</v>
       </c>
     </row>
     <row r="4">
@@ -2109,10 +2018,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1787.542084116655</v>
+        <v>1724.562433118865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1642990423289841</v>
+        <v>0.1795078313894046</v>
       </c>
     </row>
     <row r="5">
@@ -2122,10 +2031,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2999.27988005543</v>
+        <v>2954.107002951518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01922433407594687</v>
+        <v>0.02109585649238981</v>
       </c>
     </row>
     <row r="6">
@@ -2135,10 +2044,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.83712588967674</v>
+        <v>9.808949374539708</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8239147349522381</v>
+        <v>0.8403836941659099</v>
       </c>
     </row>
     <row r="7">
@@ -2148,10 +2057,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2142.845474160496</v>
+        <v>-2143.872763786692</v>
       </c>
       <c r="C7" t="n">
-        <v>1.101409621027098e-54</v>
+        <v>9.980303105588926e-55</v>
       </c>
     </row>
     <row r="8">
@@ -2161,10 +2070,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.33880232692506</v>
+        <v>-10.94867083106891</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06822170188224091</v>
+        <v>0.07806980336679623</v>
       </c>
     </row>
     <row r="9">
@@ -2174,10 +2083,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>239.224747362652</v>
+        <v>233.6529385892762</v>
       </c>
       <c r="C9" t="n">
-        <v>8.185548354205234e-10</v>
+        <v>1.725592287002005e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2187,10 +2096,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>355.1814645890149</v>
+        <v>345.1245629174661</v>
       </c>
       <c r="C10" t="n">
-        <v>2.697152687728699e-39</v>
+        <v>3.400364586370023e-39</v>
       </c>
     </row>
     <row r="11">
@@ -2200,75 +2109,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01522833968793964</v>
+        <v>0.0001693185113957399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3235221721610488</v>
+        <v>0.9888538310557207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.91457645000275e-05</v>
+        <v>-0.8167282122400783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1066205871719586</v>
+        <v>0.9076204905618381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.9851843289638764</v>
+        <v>-11.87736976565713</v>
       </c>
       <c r="C13" t="n">
-        <v>0.888683243021803</v>
+        <v>0.1994324969002079</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-12.20871837235203</v>
+        <v>-559.7798308328767</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1872537906507958</v>
+        <v>0.5196163252652948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-953.2558454047469</v>
+        <v>673.7968157755258</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2910234034762064</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>764.2740485795526</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2708512232656134</v>
+        <v>0.3301247810261567</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,10 +2210,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3885.830129297857</v>
+        <v>4094.371246840732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02599459012595446</v>
+        <v>0.01878102205523278</v>
       </c>
     </row>
     <row r="3">
@@ -2327,10 +2223,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1631.715796138171</v>
+        <v>1565.644160890792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1804276709358235</v>
+        <v>0.198608313199323</v>
       </c>
     </row>
     <row r="4">
@@ -2340,10 +2236,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>759.5230484385924</v>
+        <v>708.514523710037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5161659615105374</v>
+        <v>0.5446935051792325</v>
       </c>
     </row>
     <row r="5">
@@ -2353,10 +2249,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1725.084165782118</v>
+        <v>1696.687424626372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1390317081243264</v>
+        <v>0.1456787135554158</v>
       </c>
     </row>
     <row r="6">
@@ -2366,10 +2262,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.425120602147871</v>
+        <v>6.701682087080323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8617438965006758</v>
+        <v>0.889818806808682</v>
       </c>
     </row>
     <row r="7">
@@ -2379,10 +2275,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2121.5452239001</v>
+        <v>-2120.788786151481</v>
       </c>
       <c r="C7" t="n">
-        <v>3.852383014996391e-55</v>
+        <v>4.341126854525027e-55</v>
       </c>
     </row>
     <row r="8">
@@ -2392,10 +2288,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.76543411887545</v>
+        <v>-15.21565104451247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0101863600957863</v>
+        <v>0.01305917682877413</v>
       </c>
     </row>
     <row r="9">
@@ -2405,10 +2301,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256.5699449538836</v>
+        <v>249.5747000030136</v>
       </c>
       <c r="C9" t="n">
-        <v>1.911896718567225e-11</v>
+        <v>5.446650494844192e-11</v>
       </c>
     </row>
     <row r="10">
@@ -2418,10 +2314,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.5079098862459</v>
+        <v>347.1493358578916</v>
       </c>
       <c r="C10" t="n">
-        <v>5.307357380409488e-41</v>
+        <v>1.524851461322199e-40</v>
       </c>
     </row>
     <row r="11">
@@ -2431,75 +2327,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01267871879634117</v>
+        <v>0.005208840782529853</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4027227567885471</v>
+        <v>0.6653106816879277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.643969806662647e-05</v>
+        <v>-2.814701924944455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05187071821838171</v>
+        <v>0.6836368500585799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.021615279353583</v>
+        <v>-6.372578410668472</v>
       </c>
       <c r="C13" t="n">
-        <v>0.661769712574376</v>
+        <v>0.4858563268244342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.684849697766093</v>
+        <v>417.6293786848018</v>
       </c>
       <c r="C14" t="n">
-        <v>0.464746094182973</v>
+        <v>0.6261847473384663</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-47.92052529643513</v>
+        <v>1223.154174049798</v>
       </c>
       <c r="C15" t="n">
-        <v>0.957062717999558</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1328.844035364775</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05251653477032296</v>
+        <v>0.07344103964947044</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Paris.xlsx
+++ b/outputs/ML_Results/dist_commute/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ05941907" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06426750" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06964173" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ07528846" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ08070252" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ08609863" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ09135449" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ09694378" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10227976" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36571723" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ36930642" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37328205" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ37694639" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ38085949" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ38498772" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ38904473" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ39296442" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ39689494" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3544.846305199956</v>
+        <v>3544.846305198487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04128468227981567</v>
+        <v>0.04128468227996347</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2054.252101778329</v>
+        <v>2054.252101778806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08745291500790024</v>
+        <v>0.0874529150078965</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1177.174284269203</v>
+        <v>1177.174284268799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3078943518408005</v>
+        <v>0.3078943518408681</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2361.721143526228</v>
+        <v>2361.721143525657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04010205097723845</v>
+        <v>0.04010205097722897</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.47601737150941</v>
+        <v>26.47601737196213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5834579499064489</v>
+        <v>0.5834579498999517</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2084.208051005231</v>
+        <v>-2084.208051005262</v>
       </c>
       <c r="C7" t="n">
-        <v>6.616484532841099e-53</v>
+        <v>6.616484532823724e-53</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.89581559025642</v>
+        <v>-9.895815590266889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1060350009825127</v>
+        <v>0.1060350009821526</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.4739707045756</v>
+        <v>222.4739707045576</v>
       </c>
       <c r="C9" t="n">
-        <v>5.50646434477899e-09</v>
+        <v>5.506464344794452e-09</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.558126828088</v>
+        <v>349.5581268280822</v>
       </c>
       <c r="C10" t="n">
-        <v>3.82330030103959e-41</v>
+        <v>3.823300301052046e-41</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.001989458647196285</v>
+        <v>-0.1989458647127533</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8685866462162281</v>
+        <v>0.8685866462206847</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.192758336275105</v>
+        <v>2.192758336275107</v>
       </c>
       <c r="C12" t="n">
         <v>0.7530447166997823</v>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.384625779968761</v>
+        <v>-7.38462577996841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4239338000340125</v>
+        <v>0.4239338000340336</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.41824253724684</v>
+        <v>0.5941824253728163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9450283230444749</v>
+        <v>0.9450283230444427</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>704.1350760139195</v>
+        <v>7.041350760139357</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3044597216925096</v>
+        <v>0.3044597216924977</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4955.538043964056</v>
+        <v>4955.538043958175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00484324339472147</v>
+        <v>0.004843243394840107</v>
       </c>
     </row>
     <row r="3">
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1629.568941715585</v>
+        <v>1629.568941714743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1867055297894581</v>
+        <v>0.1867055297894687</v>
       </c>
     </row>
     <row r="4">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.8150518929297</v>
+        <v>781.8150518930149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5112366163412675</v>
+        <v>0.5112366163412541</v>
       </c>
     </row>
     <row r="5">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2150.711187303298</v>
+        <v>2150.711187302817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06996171772274995</v>
+        <v>0.06996171772273709</v>
       </c>
     </row>
     <row r="6">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.76992030276735</v>
+        <v>47.76992030276855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3204913382557934</v>
+        <v>0.3204913382557802</v>
       </c>
     </row>
     <row r="7">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1992.674034119955</v>
+        <v>-1992.674034120007</v>
       </c>
       <c r="C7" t="n">
-        <v>1.378309542604165e-48</v>
+        <v>1.378309542596727e-48</v>
       </c>
     </row>
     <row r="8">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.413768729779333</v>
+        <v>-9.413768729773384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1246888049070139</v>
+        <v>0.124688804907241</v>
       </c>
     </row>
     <row r="9">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.8457335093643</v>
+        <v>221.8457335090333</v>
       </c>
       <c r="C9" t="n">
-        <v>6.197305071647711e-09</v>
+        <v>6.197305071964696e-09</v>
       </c>
     </row>
     <row r="10">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.0493174203322</v>
+        <v>352.0493174207221</v>
       </c>
       <c r="C10" t="n">
-        <v>1.108101521786688e-41</v>
+        <v>1.108101521513946e-41</v>
       </c>
     </row>
     <row r="11">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001513811990094631</v>
+        <v>0.1513811990008399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8996765817939003</v>
+        <v>0.8996765817996675</v>
       </c>
     </row>
     <row r="12">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.605266114091411</v>
+        <v>-7.605266114091565</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2745404082719192</v>
+        <v>0.2745404082719073</v>
       </c>
     </row>
     <row r="13">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-16.6270839899265</v>
+        <v>-16.62708398992541</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07060586807715287</v>
+        <v>0.07060586807716972</v>
       </c>
     </row>
     <row r="14">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.51537962346418</v>
+        <v>0.1151537962346629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9892663952855222</v>
+        <v>0.9892663952855202</v>
       </c>
     </row>
     <row r="15">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1080.233723949565</v>
+        <v>10.8023372394959</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1137564955151276</v>
+        <v>0.1137564955151189</v>
       </c>
     </row>
   </sheetData>
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3600.643120156491</v>
+        <v>3600.643120165961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04074549863185727</v>
+        <v>0.04074549863086586</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1873.999555253511</v>
+        <v>1873.999555253898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131962959493843</v>
+        <v>0.1319629594938302</v>
       </c>
     </row>
     <row r="4">
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1349.100709785743</v>
+        <v>1349.100709786167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2589603786225078</v>
+        <v>0.25896037862245</v>
       </c>
     </row>
     <row r="5">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2461.265951518411</v>
+        <v>2461.265951518076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03878642208487075</v>
+        <v>0.03878642208485621</v>
       </c>
     </row>
     <row r="6">
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.64114042842314</v>
+        <v>23.64114042845542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6251884358307743</v>
+        <v>0.6251884358302987</v>
       </c>
     </row>
     <row r="7">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2017.696416528427</v>
+        <v>-2017.696416528393</v>
       </c>
       <c r="C7" t="n">
-        <v>2.355038333890568e-49</v>
+        <v>2.355038333899242e-49</v>
       </c>
     </row>
     <row r="8">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.03610170212546</v>
+        <v>-11.0361017021326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07328409931853526</v>
+        <v>0.07328409931835614</v>
       </c>
     </row>
     <row r="9">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>214.0539410038874</v>
+        <v>214.0539410045862</v>
       </c>
       <c r="C9" t="n">
-        <v>2.097997688759121e-08</v>
+        <v>2.097997688541839e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.6645888434942</v>
+        <v>340.664588842914</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0517484528666e-38</v>
+        <v>1.051748453207996e-38</v>
       </c>
     </row>
     <row r="11">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.002742349580552128</v>
+        <v>-0.2742349580454579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8204929208957097</v>
+        <v>0.8204929209018421</v>
       </c>
     </row>
     <row r="12">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.933591710811354</v>
+        <v>-1.933591710811671</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7815863886062857</v>
+        <v>0.7815863886062521</v>
       </c>
     </row>
     <row r="13">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.323008836446206</v>
+        <v>-6.323008836446164</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4893382261795242</v>
+        <v>0.4893382261795265</v>
       </c>
     </row>
     <row r="14">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-560.3896555960312</v>
+        <v>-5.603896555960157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5203244065167465</v>
+        <v>0.5203244065167584</v>
       </c>
     </row>
     <row r="15">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1193.585557697164</v>
+        <v>11.93585557697161</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08359882491227347</v>
+        <v>0.08359882491227413</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4485.307252809631</v>
+        <v>4485.307252819587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009510649998416835</v>
+        <v>0.009510649998128347</v>
       </c>
     </row>
     <row r="3">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2400.362874620095</v>
+        <v>2400.36287462157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04601779838987259</v>
+        <v>0.04601779838987594</v>
       </c>
     </row>
     <row r="4">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1441.008584323932</v>
+        <v>1441.008584324954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2127658854392719</v>
+        <v>0.2127658854391457</v>
       </c>
     </row>
     <row r="5">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2660.00967030478</v>
+        <v>2660.009670305317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02102876112053611</v>
+        <v>0.02102876112054011</v>
       </c>
     </row>
     <row r="6">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.03486955358624</v>
+        <v>3.034869553983082</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9500917056911755</v>
+        <v>0.9500917056846524</v>
       </c>
     </row>
     <row r="7">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2010.296693621762</v>
+        <v>-2010.296693621724</v>
       </c>
       <c r="C7" t="n">
-        <v>2.677819289008172e-49</v>
+        <v>2.677819289019144e-49</v>
       </c>
     </row>
     <row r="8">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.89451180550054</v>
+        <v>-16.89451180550722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005962322351601942</v>
+        <v>0.005962322351583</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>243.6664867760868</v>
+        <v>243.666486776199</v>
       </c>
       <c r="C9" t="n">
-        <v>1.820292583175559e-10</v>
+        <v>1.820292583141179e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>328.1508869823499</v>
+        <v>328.150886981797</v>
       </c>
       <c r="C10" t="n">
-        <v>2.665227930502254e-36</v>
+        <v>2.66522793128556e-36</v>
       </c>
     </row>
     <row r="11">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0009272255934590122</v>
+        <v>0.09272255933024642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9386122426774073</v>
+        <v>0.9386122426877684</v>
       </c>
     </row>
     <row r="12">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.595651276169091</v>
+        <v>-6.595651276167795</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3422538645775854</v>
+        <v>0.3422538645776797</v>
       </c>
     </row>
     <row r="13">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-13.555619032079</v>
+        <v>-13.5556190320772</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1340758787731021</v>
+        <v>0.1340758787731521</v>
       </c>
     </row>
     <row r="14">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.0432348634985</v>
+        <v>1.030432348634974</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9041752926503521</v>
+        <v>0.9041752926503531</v>
       </c>
     </row>
     <row r="15">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1327.188942563127</v>
+        <v>13.27188942563079</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05231985922794944</v>
+        <v>0.05231985922795802</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4019.781574178966</v>
+        <v>4019.781574185228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0214076212066786</v>
+        <v>0.02140762120625798</v>
       </c>
     </row>
     <row r="3">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1646.174282444901</v>
+        <v>1646.174282444657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1801750776418928</v>
+        <v>0.1801750776418884</v>
       </c>
     </row>
     <row r="4">
@@ -1364,10 +1364,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>804.7710704417821</v>
+        <v>804.7710704418512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4949378538405613</v>
+        <v>0.4949378538405379</v>
       </c>
     </row>
     <row r="5">
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1936.124813708008</v>
+        <v>1936.124813707551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09952039226505999</v>
+        <v>0.09952039226504404</v>
       </c>
     </row>
     <row r="6">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.99098867355567</v>
+        <v>36.99098867315296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4431500074314154</v>
+        <v>0.4431500074364608</v>
       </c>
     </row>
     <row r="7">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2033.085578159571</v>
+        <v>-2033.085578159535</v>
       </c>
       <c r="C7" t="n">
-        <v>6.875557822407355e-50</v>
+        <v>6.875557822430811e-50</v>
       </c>
     </row>
     <row r="8">
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.52097148287077</v>
+        <v>-12.52097148286935</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04180313578568683</v>
+        <v>0.04180313578570719</v>
       </c>
     </row>
     <row r="9">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249.2215160247811</v>
+        <v>249.2215160248678</v>
       </c>
       <c r="C9" t="n">
-        <v>9.427349439994667e-11</v>
+        <v>9.427349439855377e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>342.37174185702</v>
+        <v>342.3717418567505</v>
       </c>
       <c r="C10" t="n">
-        <v>8.427561500610197e-39</v>
+        <v>8.427561501953452e-39</v>
       </c>
     </row>
     <row r="11">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.002023989807090721</v>
+        <v>-0.2023989806985703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8672691836818189</v>
+        <v>0.8672691836885684</v>
       </c>
     </row>
     <row r="12">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.9739269198818463</v>
+        <v>-0.9739269198810017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8893857852124158</v>
+        <v>0.8893857852125118</v>
       </c>
     </row>
     <row r="13">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.146809599830578</v>
+        <v>-4.146809599829908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.651938532542526</v>
+        <v>0.6519385325425805</v>
       </c>
     </row>
     <row r="14">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-637.8014625798044</v>
+        <v>-6.378014625797997</v>
       </c>
       <c r="C14" t="n">
-        <v>0.463952458763947</v>
+        <v>0.4639524587639497</v>
       </c>
     </row>
     <row r="15">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>619.908616303218</v>
+        <v>6.199086163032073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3666084263224706</v>
+        <v>0.366608426322479</v>
       </c>
     </row>
   </sheetData>
@@ -1556,10 +1556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4954.458640086405</v>
+        <v>4954.458640077592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005144714916257376</v>
+        <v>0.005144714916462104</v>
       </c>
     </row>
     <row r="3">
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1408.419719096833</v>
+        <v>1408.419719095499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.259333668168051</v>
+        <v>0.2593336681680451</v>
       </c>
     </row>
     <row r="4">
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>573.1172546064863</v>
+        <v>573.1172546055395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6339541267682864</v>
+        <v>0.6339541267686171</v>
       </c>
     </row>
     <row r="5">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1821.23381734953</v>
+        <v>1821.233817349563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1290291888243527</v>
+        <v>0.1290291888243511</v>
       </c>
     </row>
     <row r="6">
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.85307344272467</v>
+        <v>24.85307344265657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6110404125569751</v>
+        <v>0.611040412557965</v>
       </c>
     </row>
     <row r="7">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2180.378215360716</v>
+        <v>-2180.378215360768</v>
       </c>
       <c r="C7" t="n">
-        <v>2.002182247140544e-56</v>
+        <v>2.002182247130633e-56</v>
       </c>
     </row>
     <row r="8">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.378557555854597</v>
+        <v>-9.378557555847632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1321128729381537</v>
+        <v>0.1321128729384258</v>
       </c>
     </row>
     <row r="9">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>218.9751668223693</v>
+        <v>218.9751668219563</v>
       </c>
       <c r="C9" t="n">
-        <v>1.369756852851778e-08</v>
+        <v>1.369756852936683e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.4487259480837</v>
+        <v>341.4487259485788</v>
       </c>
       <c r="C10" t="n">
-        <v>7.412474363209237e-39</v>
+        <v>7.41247436112933e-39</v>
       </c>
     </row>
     <row r="11">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.001354634269055341</v>
+        <v>-0.135463426912034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9110044379170108</v>
+        <v>0.9110044379127706</v>
       </c>
     </row>
     <row r="12">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.092408889447499</v>
+        <v>-2.092408889447142</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7659030753426619</v>
+        <v>0.7659030753427013</v>
       </c>
     </row>
     <row r="13">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-11.73920411961823</v>
+        <v>-11.73920411961725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2011080989068625</v>
+        <v>0.2011080989068971</v>
       </c>
     </row>
     <row r="14">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-119.4394894110446</v>
+        <v>-1.194394894109896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8914555986605366</v>
+        <v>0.8914555986605865</v>
       </c>
     </row>
     <row r="15">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.0712032023437</v>
+        <v>6.370712032023877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3573160694154186</v>
+        <v>0.3573160694153857</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3869.761934904278</v>
+        <v>3869.761934910788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03127432283519211</v>
+        <v>0.03127432283458766</v>
       </c>
     </row>
     <row r="3">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1606.707513223816</v>
+        <v>1606.707513222442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2096820422572744</v>
+        <v>0.2096820422572656</v>
       </c>
     </row>
     <row r="4">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.8317257494683</v>
+        <v>944.8317257485012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4442287581415921</v>
+        <v>0.4442287581417778</v>
       </c>
     </row>
     <row r="5">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2029.099742507278</v>
+        <v>2029.099742506817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0995316269156892</v>
+        <v>0.09953162691566361</v>
       </c>
     </row>
     <row r="6">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.523921160316092</v>
+        <v>-5.523921160297107</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9099746786610096</v>
+        <v>0.9099746786613174</v>
       </c>
     </row>
     <row r="7">
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2027.812666751732</v>
+        <v>-2027.812666751807</v>
       </c>
       <c r="C7" t="n">
-        <v>1.12635240611188e-49</v>
+        <v>1.126352406104597e-49</v>
       </c>
     </row>
     <row r="8">
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.14260654183491</v>
+        <v>-13.14260654182837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03220359634799131</v>
+        <v>0.03220359634806912</v>
       </c>
     </row>
     <row r="9">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.5972500457584</v>
+        <v>259.5972500450991</v>
       </c>
       <c r="C9" t="n">
-        <v>1.133731014793758e-11</v>
+        <v>1.133731014920174e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.8801596566756</v>
+        <v>349.8801596567353</v>
       </c>
       <c r="C10" t="n">
-        <v>7.595840386645522e-41</v>
+        <v>7.595840386402609e-41</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.006058684963251657</v>
+        <v>-0.6058684963434487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6147211675039181</v>
+        <v>0.6147211674932183</v>
       </c>
     </row>
     <row r="12">
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.48373118223749</v>
+        <v>3.483731182237604</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6173548196446413</v>
+        <v>0.6173548196446297</v>
       </c>
     </row>
     <row r="13">
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.116628166230507</v>
+        <v>-8.11662816623052</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3751952211089432</v>
+        <v>0.3751952211089427</v>
       </c>
     </row>
     <row r="14">
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.6168007698154</v>
+        <v>2.746168007698198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.750230692775996</v>
+        <v>0.7502306927759921</v>
       </c>
     </row>
     <row r="15">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>783.3659355884224</v>
+        <v>7.833659355884299</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2539573894453783</v>
+        <v>0.2539573894453734</v>
       </c>
     </row>
   </sheetData>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3765.723436148458</v>
+        <v>3765.723436133034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04000546742406522</v>
+        <v>0.04000546742539661</v>
       </c>
     </row>
     <row r="3">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2863.386678845429</v>
+        <v>2863.386678848471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03112503109802986</v>
+        <v>0.03112503109802923</v>
       </c>
     </row>
     <row r="4">
@@ -2018,10 +2018,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1724.562433118865</v>
+        <v>1724.562433121793</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1795078313894046</v>
+        <v>0.1795078313891071</v>
       </c>
     </row>
     <row r="5">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2954.107002951518</v>
+        <v>2954.10700295378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02109585649238981</v>
+        <v>0.02109585649239207</v>
       </c>
     </row>
     <row r="6">
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.808949374539708</v>
+        <v>9.808949374036706</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8403836941659099</v>
+        <v>0.8403836941740063</v>
       </c>
     </row>
     <row r="7">
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2143.872763786692</v>
+        <v>-2143.872763786777</v>
       </c>
       <c r="C7" t="n">
-        <v>9.980303105588926e-55</v>
+        <v>9.980303105491661e-55</v>
       </c>
     </row>
     <row r="8">
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.94867083106891</v>
+        <v>-10.94867083105892</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07806980336679623</v>
+        <v>0.07806980336705854</v>
       </c>
     </row>
     <row r="9">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.6529385892762</v>
+        <v>233.6529385891869</v>
       </c>
       <c r="C9" t="n">
-        <v>1.725592287002005e-09</v>
+        <v>1.725592287026655e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.1245629174661</v>
+        <v>345.1245629179908</v>
       </c>
       <c r="C10" t="n">
-        <v>3.400364586370023e-39</v>
+        <v>3.400364585441898e-39</v>
       </c>
     </row>
     <row r="11">
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0001693185113957399</v>
+        <v>0.01693185113238044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9888538310557207</v>
+        <v>0.9888538310604831</v>
       </c>
     </row>
     <row r="12">
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.8167282122400783</v>
+        <v>-0.8167282122396053</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9076204905618381</v>
+        <v>0.9076204905618919</v>
       </c>
     </row>
     <row r="13">
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-11.87736976565713</v>
+        <v>-11.87736976565666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1994324969002079</v>
+        <v>0.1994324969002279</v>
       </c>
     </row>
     <row r="14">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-559.7798308328767</v>
+        <v>-5.597798308328562</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5196163252652948</v>
+        <v>0.5196163252653097</v>
       </c>
     </row>
     <row r="15">
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>673.7968157755258</v>
+        <v>6.737968157754798</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3301247810261567</v>
+        <v>0.3301247810261889</v>
       </c>
     </row>
   </sheetData>
@@ -2210,10 +2210,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4094.371246840732</v>
+        <v>4094.371246852771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01878102205523278</v>
+        <v>0.01878102205447983</v>
       </c>
     </row>
     <row r="3">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1565.644160890792</v>
+        <v>1565.644160890156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.198608313199323</v>
+        <v>0.1986083131993199</v>
       </c>
     </row>
     <row r="4">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>708.514523710037</v>
+        <v>708.5145237098558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5446935051792325</v>
+        <v>0.5446935051792847</v>
       </c>
     </row>
     <row r="5">
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1696.687424626372</v>
+        <v>1696.687424626154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1456787135554158</v>
+        <v>0.1456787135554075</v>
       </c>
     </row>
     <row r="6">
@@ -2262,10 +2262,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.701682087080323</v>
+        <v>6.701682086796522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.889818806808682</v>
+        <v>0.8898188068133261</v>
       </c>
     </row>
     <row r="7">
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2120.788786151481</v>
+        <v>-2120.788786151409</v>
       </c>
       <c r="C7" t="n">
-        <v>4.341126854525027e-55</v>
+        <v>4.341126854558786e-55</v>
       </c>
     </row>
     <row r="8">
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.21565104451247</v>
+        <v>-15.21565104452502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01305917682877413</v>
+        <v>0.01305917682870195</v>
       </c>
     </row>
     <row r="9">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249.5747000030136</v>
+        <v>249.5747000026246</v>
       </c>
       <c r="C9" t="n">
-        <v>5.446650494844192e-11</v>
+        <v>5.446650495195353e-11</v>
       </c>
     </row>
     <row r="10">
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.1493358578916</v>
+        <v>347.149335857596</v>
       </c>
       <c r="C10" t="n">
-        <v>1.524851461322199e-40</v>
+        <v>1.524851461602179e-40</v>
       </c>
     </row>
     <row r="11">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005208840782529853</v>
+        <v>0.5208840782258602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6653106816879277</v>
+        <v>0.6653106817042778</v>
       </c>
     </row>
     <row r="12">
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.814701924944455</v>
+        <v>-2.814701924944129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6836368500585799</v>
+        <v>0.683636850058614</v>
       </c>
     </row>
     <row r="13">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.372578410668472</v>
+        <v>-6.372578410667304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4858563268244342</v>
+        <v>0.485856326824509</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>417.6293786848018</v>
+        <v>4.176293786848259</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6261847473384663</v>
+        <v>0.6261847473384466</v>
       </c>
     </row>
     <row r="15">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1223.154174049798</v>
+        <v>12.23154174049794</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07344103964947044</v>
+        <v>0.07344103964947181</v>
       </c>
     </row>
   </sheetData>
